--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A224E-8416-436B-81C6-D01DB4B89305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54113A9-9C43-48C3-B9BE-43879CD33225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="9" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="2" activeTab="11" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="2003nodes" sheetId="8" r:id="rId8"/>
     <sheet name="2004authors" sheetId="9" r:id="rId9"/>
     <sheet name="2004nodes" sheetId="10" r:id="rId10"/>
+    <sheet name="2005authors" sheetId="11" r:id="rId11"/>
+    <sheet name="2005nodes" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="152">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -464,6 +466,42 @@
   </si>
   <si>
     <t>Italy</t>
+  </si>
+  <si>
+    <t>Siqueira, T</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>Trivinho-Strixino, S</t>
+  </si>
+  <si>
+    <t>STS</t>
+  </si>
+  <si>
+    <t>Gallego, OF</t>
+  </si>
+  <si>
+    <t>OFG</t>
+  </si>
+  <si>
+    <t>Martins-Neto, RG</t>
+  </si>
+  <si>
+    <t>RGMN</t>
+  </si>
+  <si>
+    <t>Nielsen, SN</t>
+  </si>
+  <si>
+    <t>SNN</t>
+  </si>
+  <si>
+    <t>Goulart, M</t>
+  </si>
+  <si>
+    <t>MCG</t>
   </si>
 </sst>
 </file>
@@ -519,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -530,6 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBDEE07-3AF2-42D7-BCDD-9E1F25AB0C7C}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="A7:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1387,6 +1426,333 @@
         <v>2004</v>
       </c>
       <c r="G22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681D8C3-E4FC-4838-B1C5-BCB9920567F9}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>2005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574957B9-3DA1-4413-93C3-2B02B1818122}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>2005</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>2005</v>
+      </c>
+      <c r="G10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2973,7 +3339,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54113A9-9C43-48C3-B9BE-43879CD33225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C90033C-EA2E-4C70-9F13-52A8E2F5E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="2" activeTab="11" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" firstSheet="2" activeTab="9" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBDEE07-3AF2-42D7-BCDD-9E1F25AB0C7C}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1537,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574957B9-3DA1-4413-93C3-2B02B1818122}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C90033C-EA2E-4C70-9F13-52A8E2F5E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA4A697-AB5B-4110-AF34-D020C88D792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" firstSheet="2" activeTab="9" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="782" firstSheet="2" activeTab="9" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -971,7 +971,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA4A697-AB5B-4110-AF34-D020C88D792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FFF0A4-8C46-4F23-9897-9204231AB1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="782" firstSheet="2" activeTab="9" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="3" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="152">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -557,15 +557,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -970,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBDEE07-3AF2-42D7-BCDD-9E1F25AB0C7C}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -1465,7 +1462,7 @@
       <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>5</v>
       </c>
       <c r="D2">
@@ -1580,7 +1577,7 @@
       <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
       <c r="E2" t="s">
@@ -2163,18 +2160,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B81E93-D593-4021-8168-5A364216126A}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2193,11 +2191,8 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -2217,7 +2212,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2237,7 +2232,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -2257,7 +2252,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -2277,7 +2272,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -2297,7 +2292,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2317,7 +2312,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -2337,7 +2332,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -2357,7 +2352,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -2377,7 +2372,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -2397,7 +2392,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -2417,7 +2412,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -2437,7 +2432,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -2457,7 +2452,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -2477,7 +2472,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -2497,7 +2492,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -2517,7 +2512,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -2537,7 +2532,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2556,11 +2551,8 @@
       <c r="F19">
         <v>2001</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -2579,11 +2571,8 @@
       <c r="F20">
         <v>2001</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -2603,7 +2592,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FFF0A4-8C46-4F23-9897-9204231AB1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E2D6D9-1D28-4007-89E6-D673E99968D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="3" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="7" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="153">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -375,9 +375,6 @@
     <t>JGMR</t>
   </si>
   <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
     <t>de Drago, IE</t>
   </si>
   <si>
@@ -502,6 +499,12 @@
   </si>
   <si>
     <t>MCG</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -553,11 +556,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -566,6 +584,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,7 +989,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,10 +1063,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
         <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1062,10 +1083,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1082,13 +1103,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
         <v>114</v>
       </c>
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1105,7 +1126,7 @@
         <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -1125,7 +1146,7 @@
         <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -1145,7 +1166,7 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
@@ -1162,10 +1183,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
         <v>119</v>
-      </c>
-      <c r="B10" t="s">
-        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -1182,10 +1203,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
         <v>121</v>
-      </c>
-      <c r="B11" t="s">
-        <v>122</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -1202,10 +1223,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
         <v>123</v>
-      </c>
-      <c r="B12" t="s">
-        <v>124</v>
       </c>
       <c r="C12" t="s">
         <v>67</v>
@@ -1222,10 +1243,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
         <v>125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>126</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
@@ -1242,10 +1263,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
         <v>127</v>
-      </c>
-      <c r="B14" t="s">
-        <v>128</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
@@ -1282,7 +1303,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
         <v>96</v>
@@ -1302,10 +1323,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
         <v>130</v>
-      </c>
-      <c r="B17" t="s">
-        <v>131</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1322,13 +1343,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
         <v>132</v>
       </c>
-      <c r="B18" t="s">
-        <v>133</v>
-      </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -1342,13 +1363,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
         <v>134</v>
       </c>
-      <c r="B19" t="s">
-        <v>135</v>
-      </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1362,13 +1383,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
         <v>136</v>
       </c>
-      <c r="B20" t="s">
-        <v>137</v>
-      </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -1457,10 +1478,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -1471,10 +1492,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1485,10 +1506,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1499,10 +1520,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1513,10 +1534,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1535,7 +1556,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,10 +1590,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -1589,10 +1610,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" t="s">
-        <v>143</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -1609,10 +1630,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
         <v>144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1629,10 +1650,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
         <v>146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>147</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -1649,13 +1670,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
         <v>148</v>
       </c>
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -1669,10 +1690,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
         <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>124</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -1689,10 +1710,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
         <v>150</v>
-      </c>
-      <c r="B8" t="s">
-        <v>151</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -1709,10 +1730,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
         <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>151</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
@@ -1732,10 +1753,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
         <v>123</v>
-      </c>
-      <c r="B10" t="s">
-        <v>124</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -2162,7 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B81E93-D593-4021-8168-5A364216126A}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2735,7 +2756,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3086,16 +3107,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED9D5E6-244D-43BE-B5C9-D0347E19AC0D}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3118,174 +3140,174 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
-        <v>109</v>
+      <c r="C2" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" t="s">
-        <v>109</v>
+      <c r="C3" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>2003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
       </c>
-      <c r="C4" t="s">
-        <v>109</v>
+      <c r="C4" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <v>2003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>96</v>
       </c>
-      <c r="C5" t="s">
-        <v>109</v>
+      <c r="C5" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>98</v>
       </c>
-      <c r="C6" t="s">
-        <v>109</v>
+      <c r="C6" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>2003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>100</v>
       </c>
-      <c r="C7" t="s">
-        <v>69</v>
+      <c r="C7" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>2003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>69</v>
+      <c r="C8" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>104</v>
       </c>
-      <c r="C9" t="s">
-        <v>69</v>
+      <c r="C9" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>2003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>106</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D10">
@@ -3298,21 +3320,21 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>107</v>
       </c>
       <c r="B11" t="s">
         <v>108</v>
       </c>
-      <c r="C11" t="s">
-        <v>69</v>
+      <c r="C11" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F11">
         <v>2003</v>
@@ -3363,10 +3385,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -3377,10 +3399,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -3391,10 +3413,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -3405,10 +3427,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -3419,10 +3441,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -3433,10 +3455,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -3447,10 +3469,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -3461,7 +3483,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
@@ -3475,7 +3497,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>96</v>
@@ -3489,10 +3511,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3503,10 +3525,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -3517,10 +3539,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -3531,7 +3553,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -3545,7 +3567,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>75</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E2D6D9-1D28-4007-89E6-D673E99968D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48CB361-A2AC-43DB-B671-501703E2841D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="7" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="3" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="153">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -1781,15 +1781,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E84D51-3BFE-4638-9DD0-BF61EDA22FCF}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1808,8 +1812,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1829,7 +1836,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1849,7 +1856,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1869,7 +1876,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1889,7 +1896,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1909,7 +1916,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1929,7 +1936,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2181,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B81E93-D593-4021-8168-5A364216126A}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2193,7 +2200,7 @@
     <col min="6" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2212,8 +2219,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -2233,7 +2243,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2253,7 +2263,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -2273,7 +2283,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -2293,7 +2303,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -2313,7 +2323,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2333,7 +2343,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -2353,7 +2363,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -2373,7 +2383,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -2393,7 +2403,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -2413,7 +2423,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -2433,7 +2443,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -2453,7 +2463,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -2473,7 +2483,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -2493,7 +2503,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -2756,7 +2766,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3107,7 +3117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED9D5E6-244D-43BE-B5C9-D0347E19AC0D}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48CB361-A2AC-43DB-B671-501703E2841D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B32C22-CAE0-4E82-9213-518A98B97834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="3" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="7" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -528,21 +528,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -556,37 +545,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1254,7 +1222,7 @@
       <c r="D13">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F13">
@@ -1483,7 +1451,7 @@
       <c r="B2" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>5</v>
       </c>
       <c r="D2">
@@ -1598,7 +1566,7 @@
       <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
@@ -2190,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B81E93-D593-4021-8168-5A364216126A}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2224,16 +2192,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -2244,16 +2212,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -2264,16 +2232,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -2284,16 +2252,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
@@ -2304,16 +2272,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
@@ -2324,16 +2292,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
@@ -2344,16 +2312,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
@@ -2364,16 +2332,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
@@ -2384,16 +2352,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
@@ -2404,16 +2372,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
@@ -2424,16 +2392,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>6</v>
       </c>
       <c r="E12" t="s">
@@ -2444,16 +2412,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>6</v>
       </c>
       <c r="E13" t="s">
@@ -2464,19 +2432,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>9</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>71</v>
       </c>
       <c r="F14">
@@ -2484,19 +2452,19 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>9</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15">
@@ -2504,19 +2472,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>9</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>7</v>
       </c>
       <c r="F16">
@@ -2524,19 +2492,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17">
@@ -2544,19 +2512,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>9</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18">
@@ -2564,19 +2532,19 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>12</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19">
@@ -2584,19 +2552,19 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20">
@@ -2604,19 +2572,19 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>72</v>
       </c>
       <c r="F21">
@@ -2624,19 +2592,19 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>13</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>72</v>
       </c>
       <c r="F22">
@@ -3117,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED9D5E6-244D-43BE-B5C9-D0347E19AC0D}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3127,7 +3095,7 @@
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3150,14 +3118,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>151</v>
       </c>
       <c r="D2">
@@ -3170,14 +3138,14 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>151</v>
       </c>
       <c r="D3">
@@ -3190,14 +3158,14 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>70</v>
       </c>
       <c r="D4">
@@ -3210,14 +3178,14 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>70</v>
       </c>
       <c r="D5">
@@ -3230,14 +3198,14 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>70</v>
       </c>
       <c r="D6">
@@ -3250,14 +3218,14 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>152</v>
       </c>
       <c r="D7">
@@ -3270,14 +3238,14 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>152</v>
       </c>
       <c r="D8">
@@ -3290,14 +3258,14 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>152</v>
       </c>
       <c r="D9">
@@ -3310,14 +3278,14 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>69</v>
       </c>
       <c r="D10">
@@ -3330,14 +3298,14 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
       <c r="B11" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>152</v>
       </c>
       <c r="D11">

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B32C22-CAE0-4E82-9213-518A98B97834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B6F2B1-E390-4517-A1AA-68E42E458C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="7" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="3" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="2005authors" sheetId="11" r:id="rId11"/>
     <sheet name="2005nodes" sheetId="12" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2001nodes'!$E$1:$E$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="153">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -2158,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B81E93-D593-4021-8168-5A364216126A}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2491,7 +2494,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2550,8 +2553,11 @@
       <c r="F19">
         <v>2001</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2570,8 +2576,11 @@
       <c r="F20">
         <v>2001</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -2591,7 +2600,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2734,7 +2743,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3085,8 +3094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED9D5E6-244D-43BE-B5C9-D0347E19AC0D}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B6F2B1-E390-4517-A1AA-68E42E458C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303698CA-CD6D-4415-B60C-E78ACB18D3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="3" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
@@ -2162,7 +2162,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303698CA-CD6D-4415-B60C-E78ACB18D3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A6690-2542-4633-98CE-813422A90173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="3" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="9" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="178">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -508,14 +508,97 @@
   </si>
   <si>
     <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Jour_country</t>
+  </si>
+  <si>
+    <t>Impact_Factor</t>
+  </si>
+  <si>
+    <t>Jour_continent</t>
+  </si>
+  <si>
+    <t>Archiv für Hydrobiologie</t>
+  </si>
+  <si>
+    <t>REVISTA DE BIOLOGIA TROPICAL</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>HYDROBIOLOGIA</t>
+  </si>
+  <si>
+    <t>MEMORIAS DO INSTITUTO OSWALDO CRUZ</t>
+  </si>
+  <si>
+    <t>FRESHWATER BIOLOGY</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>ARCHIV FUR HYDROBIOLOGIE</t>
+  </si>
+  <si>
+    <t>JOURNAL OF THE NORTH AMERICAN BENTHOLOGICAL SOCIETY</t>
+  </si>
+  <si>
+    <t>BIOTROPICA</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Marine and Freshwater Research</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Archiv fur Hydrobiologie</t>
+  </si>
+  <si>
+    <t>Archives of Environmental Contamination and Toxicology</t>
+  </si>
+  <si>
+    <t>River Research and Applications</t>
+  </si>
+  <si>
+    <t>INTERCIENCIA</t>
+  </si>
+  <si>
+    <t>Caribbean Journal of Science</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Journal of Tropical Ecology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -531,18 +614,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -552,12 +626,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,22 +946,28 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -957,19 +1034,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBDEE07-3AF2-42D7-BCDD-9E1F25AB0C7C}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -989,10 +1068,19 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="H1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1011,8 +1099,20 @@
       <c r="F2">
         <v>2004</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2">
+        <v>2.694</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1031,8 +1131,20 @@
       <c r="F3">
         <v>2004</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3">
+        <v>2.694</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -1051,8 +1163,20 @@
       <c r="F4">
         <v>2004</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4">
+        <v>2.78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1071,8 +1195,20 @@
       <c r="F5">
         <v>2004</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5">
+        <v>2.78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -1091,8 +1227,20 @@
       <c r="F6">
         <v>2004</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6">
+        <v>2.78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1111,8 +1259,20 @@
       <c r="F7">
         <v>2004</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7">
+        <v>2.694</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1131,8 +1291,20 @@
       <c r="F8">
         <v>2004</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8">
+        <v>2.694</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1151,8 +1323,20 @@
       <c r="F9">
         <v>2004</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9">
+        <v>2.694</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -1171,8 +1355,20 @@
       <c r="F10">
         <v>2004</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10">
+        <v>2.694</v>
+      </c>
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -1191,8 +1387,20 @@
       <c r="F11">
         <v>2004</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -1211,8 +1419,20 @@
       <c r="F12">
         <v>2004</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -1225,14 +1445,26 @@
       <c r="D13">
         <v>11</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>72</v>
       </c>
       <c r="F13">
         <v>2004</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -1251,8 +1483,20 @@
       <c r="F14">
         <v>2004</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1271,8 +1515,20 @@
       <c r="F15">
         <v>2004</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -1291,8 +1547,20 @@
       <c r="F16">
         <v>2004</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="J16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -1311,8 +1579,20 @@
       <c r="F17">
         <v>2004</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="J17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -1331,8 +1611,20 @@
       <c r="F18">
         <v>2004</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -1351,8 +1643,20 @@
       <c r="F19">
         <v>2004</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -1371,8 +1675,20 @@
       <c r="F20">
         <v>2004</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1392,10 +1708,19 @@
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="H21" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="J21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -1415,7 +1740,16 @@
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>177</v>
+      </c>
+      <c r="H22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="J22" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1788,7 @@
       <c r="B2" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
@@ -1527,7 +1861,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G7" sqref="G7:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,7 +1903,7 @@
       <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
@@ -1752,42 +2086,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E84D51-3BFE-4638-9DD0-BF61EDA22FCF}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1806,8 +2153,17 @@
       <c r="F2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1826,8 +2182,17 @@
       <c r="F3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1846,8 +2211,17 @@
       <c r="F4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1866,8 +2240,17 @@
       <c r="F5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1886,8 +2269,17 @@
       <c r="F6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1906,8 +2298,17 @@
       <c r="F7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1925,6 +2326,15 @@
       </c>
       <c r="F8">
         <v>2000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1937,22 +2347,22 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2159,42 +2569,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B81E93-D593-4021-8168-5A364216126A}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2213,8 +2633,17 @@
       <c r="F2">
         <v>2001</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2233,8 +2662,17 @@
       <c r="F3">
         <v>2001</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2253,8 +2691,17 @@
       <c r="F4">
         <v>2001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2273,8 +2720,17 @@
       <c r="F5">
         <v>2001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2293,8 +2749,17 @@
       <c r="F6">
         <v>2001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2313,8 +2778,17 @@
       <c r="F7">
         <v>2001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2333,8 +2807,17 @@
       <c r="F8">
         <v>2001</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2353,8 +2836,17 @@
       <c r="F9">
         <v>2001</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2373,8 +2865,17 @@
       <c r="F10">
         <v>2001</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -2393,8 +2894,17 @@
       <c r="F11">
         <v>2001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2413,8 +2923,17 @@
       <c r="F12">
         <v>2001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2433,8 +2952,17 @@
       <c r="F13">
         <v>2001</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2453,8 +2981,17 @@
       <c r="F14">
         <v>2001</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2473,8 +3010,17 @@
       <c r="F15">
         <v>2001</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2493,8 +3039,17 @@
       <c r="F16">
         <v>2001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -2513,8 +3068,17 @@
       <c r="F17">
         <v>2001</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2533,8 +3097,17 @@
       <c r="F18">
         <v>2001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2554,10 +3127,16 @@
         <v>2001</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2577,10 +3156,16 @@
         <v>2001</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -2599,8 +3184,17 @@
       <c r="F21">
         <v>2001</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2618,6 +3212,15 @@
       </c>
       <c r="F22">
         <v>2001</v>
+      </c>
+      <c r="G22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2630,22 +3233,22 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2740,41 +3343,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB4A4F7-DD1D-4CA4-9E07-26648F9326F0}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2793,8 +3414,20 @@
       <c r="F2">
         <v>2002</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2813,8 +3446,20 @@
       <c r="F3">
         <v>2002</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -2833,8 +3478,20 @@
       <c r="F4">
         <v>2002</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4">
+        <v>2.694</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2853,8 +3510,20 @@
       <c r="F5">
         <v>2002</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5">
+        <v>2.694</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -2873,8 +3542,20 @@
       <c r="F6">
         <v>2002</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6">
+        <v>2.694</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -2893,8 +3574,20 @@
       <c r="F7">
         <v>2002</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7">
+        <v>2.694</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -2913,8 +3606,20 @@
       <c r="F8">
         <v>2002</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8">
+        <v>2.694</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2934,10 +3639,19 @@
         <v>2002</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="H9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="J9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -2955,6 +3669,18 @@
       </c>
       <c r="F10">
         <v>2002</v>
+      </c>
+      <c r="G10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="J10" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3092,19 +3818,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED9D5E6-244D-43BE-B5C9-D0347E19AC0D}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="27.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3124,10 +3858,19 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="H1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -3146,8 +3889,20 @@
       <c r="F2">
         <v>2003</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2">
+        <v>1.528</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -3166,8 +3921,20 @@
       <c r="F3">
         <v>2003</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3">
+        <v>1.528</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -3186,8 +3953,20 @@
       <c r="F4">
         <v>2003</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="J4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -3206,8 +3985,20 @@
       <c r="F5">
         <v>2003</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -3226,8 +4017,20 @@
       <c r="F6">
         <v>2003</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -3246,8 +4049,20 @@
       <c r="F7">
         <v>2003</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7">
+        <v>2.8039999999999998</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -3266,8 +4081,20 @@
       <c r="F8">
         <v>2003</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8">
+        <v>2.8039999999999998</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -3286,8 +4113,20 @@
       <c r="F9">
         <v>2003</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9">
+        <v>2.8039999999999998</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -3306,8 +4145,20 @@
       <c r="F10">
         <v>2003</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10">
+        <v>2.8039999999999998</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -3325,6 +4176,18 @@
       </c>
       <c r="F11">
         <v>2003</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11">
+        <v>2.8039999999999998</v>
+      </c>
+      <c r="J11" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3337,7 +4200,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A6690-2542-4633-98CE-813422A90173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB9FBBF-5712-4AD2-B178-EBE9F8063065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="9" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="2" activeTab="11" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="185">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -270,12 +270,6 @@
     <t>North America</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>duplicate removed</t>
-  </si>
-  <si>
     <t>JB</t>
   </si>
   <si>
@@ -583,6 +577,33 @@
   </si>
   <si>
     <t>Journal of Tropical Ecology</t>
+  </si>
+  <si>
+    <t>REVISTA BRASILEIRA DE ENTOMOLOGIA</t>
+  </si>
+  <si>
+    <t>REVISTA GEOLOGICA DE CHILE</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>BRAZILIAN ARCHIVES OF BIOLOGY AND TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>country_study</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
   </si>
 </sst>
 </file>
@@ -1034,53 +1055,56 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBDEE07-3AF2-42D7-BCDD-9E1F25AB0C7C}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1100,24 +1124,27 @@
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2">
+        <v>158</v>
+      </c>
+      <c r="I2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2">
         <v>2.694</v>
       </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -1132,24 +1159,27 @@
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3">
+        <v>158</v>
+      </c>
+      <c r="I3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3">
         <v>2.694</v>
       </c>
-      <c r="J3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1164,24 +1194,27 @@
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I4">
+        <v>171</v>
+      </c>
+      <c r="I4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4">
         <v>2.78</v>
       </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1196,27 +1229,30 @@
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I5">
+        <v>171</v>
+      </c>
+      <c r="I5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5">
         <v>2.78</v>
       </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1228,24 +1264,27 @@
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I6">
+        <v>171</v>
+      </c>
+      <c r="I6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6">
         <v>2.78</v>
       </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -1260,24 +1299,27 @@
         <v>2004</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7">
+        <v>158</v>
+      </c>
+      <c r="I7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7">
         <v>2.694</v>
       </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -1292,24 +1334,27 @@
         <v>2004</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I8">
+        <v>158</v>
+      </c>
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8">
         <v>2.694</v>
       </c>
-      <c r="J8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
@@ -1324,24 +1369,27 @@
         <v>2004</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9">
+        <v>158</v>
+      </c>
+      <c r="I9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9">
         <v>2.694</v>
       </c>
-      <c r="J9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -1356,24 +1404,27 @@
         <v>2004</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10">
+        <v>158</v>
+      </c>
+      <c r="I10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10">
         <v>2.694</v>
       </c>
-      <c r="J10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -1388,24 +1439,27 @@
         <v>2004</v>
       </c>
       <c r="G11" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" t="s">
         <v>8</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
         <v>67</v>
@@ -1420,24 +1474,27 @@
         <v>2004</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" t="s">
         <v>8</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
@@ -1452,24 +1509,27 @@
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I13">
+        <v>160</v>
+      </c>
+      <c r="I13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13">
         <v>3.8090000000000002</v>
       </c>
-      <c r="J13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
@@ -1484,19 +1544,22 @@
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H14" t="s">
-        <v>163</v>
-      </c>
-      <c r="I14">
+        <v>160</v>
+      </c>
+      <c r="I14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14">
         <v>3.8090000000000002</v>
       </c>
-      <c r="J14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1516,24 +1579,27 @@
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H15" t="s">
-        <v>163</v>
-      </c>
-      <c r="I15">
+        <v>160</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15">
         <v>3.8090000000000002</v>
       </c>
-      <c r="J15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1548,24 +1614,27 @@
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H16" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16">
+        <v>160</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16">
         <v>3.8090000000000002</v>
       </c>
-      <c r="J16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1580,27 +1649,30 @@
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H17" t="s">
-        <v>163</v>
-      </c>
-      <c r="I17">
+        <v>160</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17">
         <v>3.8090000000000002</v>
       </c>
-      <c r="J17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -1612,27 +1684,30 @@
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
-      </c>
-      <c r="I18">
+        <v>173</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18">
         <v>0.94399999999999995</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1644,27 +1719,30 @@
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="H19" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19">
+        <v>173</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19">
         <v>0.94399999999999995</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
         <v>136</v>
-      </c>
-      <c r="C20" t="s">
-        <v>138</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -1676,19 +1754,22 @@
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>176</v>
-      </c>
-      <c r="I20">
+        <v>173</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20">
         <v>0.94399999999999995</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1708,24 +1789,27 @@
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="H21" t="s">
-        <v>163</v>
-      </c>
-      <c r="I21">
+        <v>175</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21">
         <v>1.3939999999999999</v>
       </c>
-      <c r="J21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
         <v>65</v>
@@ -1740,15 +1824,18 @@
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
-      </c>
-      <c r="I22">
+        <v>175</v>
+      </c>
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22">
         <v>1.3939999999999999</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1783,10 +1870,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1797,10 +1884,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>146</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1811,10 +1898,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1825,10 +1912,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1839,10 +1926,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1858,47 +1945,59 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574957B9-3DA1-4413-93C3-2B02B1818122}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="6" max="7" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -1912,13 +2011,25 @@
       <c r="F2">
         <v>2005</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -1932,13 +2043,25 @@
       <c r="F3">
         <v>2005</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1952,13 +2075,25 @@
       <c r="F4">
         <v>2005</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -1972,16 +2107,28 @@
       <c r="F5">
         <v>2005</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -1992,13 +2139,25 @@
       <c r="F6">
         <v>2005</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -2012,13 +2171,28 @@
       <c r="F7">
         <v>2005</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7">
+        <v>2.694</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -2032,13 +2206,28 @@
       <c r="F8">
         <v>2005</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8">
+        <v>2.694</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
@@ -2053,15 +2242,24 @@
         <v>2005</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -2076,7 +2274,16 @@
         <v>2005</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2086,55 +2293,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E84D51-3BFE-4638-9DD0-BF61EDA22FCF}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2154,16 +2365,19 @@
         <v>2000</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2183,16 +2397,19 @@
         <v>2000</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="I3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2212,16 +2429,19 @@
         <v>2000</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="I4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2241,16 +2461,19 @@
         <v>2000</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="I5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2270,16 +2493,19 @@
         <v>2000</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2299,16 +2525,19 @@
         <v>2000</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2328,12 +2557,15 @@
         <v>2000</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2569,52 +2801,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B81E93-D593-4021-8168-5A364216126A}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2634,16 +2869,19 @@
         <v>2001</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="I2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2663,16 +2901,19 @@
         <v>2001</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="I3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2692,16 +2933,19 @@
         <v>2001</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="I4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2721,16 +2965,19 @@
         <v>2001</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2750,16 +2997,19 @@
         <v>2001</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="I6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2779,16 +3029,19 @@
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="I7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2808,16 +3061,19 @@
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
-      </c>
-      <c r="J8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2837,16 +3093,19 @@
         <v>2001</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2866,16 +3125,19 @@
         <v>2001</v>
       </c>
       <c r="G10" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -2895,16 +3157,19 @@
         <v>2001</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2924,16 +3189,19 @@
         <v>2001</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="I12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2953,16 +3221,19 @@
         <v>2001</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
-      </c>
-      <c r="J13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="I13" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2982,16 +3253,19 @@
         <v>2001</v>
       </c>
       <c r="G14" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3011,16 +3285,19 @@
         <v>2001</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>137</v>
-      </c>
-      <c r="J15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -3040,16 +3317,19 @@
         <v>2001</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -3069,16 +3349,19 @@
         <v>2001</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -3098,16 +3381,19 @@
         <v>2001</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -3127,16 +3413,19 @@
         <v>2001</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" t="s">
         <v>70</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -3156,16 +3445,19 @@
         <v>2001</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" t="s">
         <v>70</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -3185,16 +3477,19 @@
         <v>2001</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -3214,12 +3509,15 @@
         <v>2001</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3257,7 +3555,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3268,10 +3566,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -3282,10 +3580,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3296,10 +3594,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3310,10 +3608,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3327,7 +3625,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3343,10 +3641,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB4A4F7-DD1D-4CA4-9E07-26648F9326F0}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3358,12 +3656,13 @@
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3383,19 +3682,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -3415,24 +3717,27 @@
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2">
         <v>2.8580000000000001</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -3447,24 +3752,27 @@
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3">
+        <v>157</v>
+      </c>
+      <c r="I3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3">
         <v>2.8580000000000001</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -3479,24 +3787,27 @@
         <v>2002</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I4">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4">
         <v>2.694</v>
       </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -3511,24 +3822,27 @@
         <v>2002</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I5">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5">
         <v>2.694</v>
       </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -3543,24 +3857,27 @@
         <v>2002</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6">
         <v>2.694</v>
       </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -3575,24 +3892,27 @@
         <v>2002</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7">
         <v>2.694</v>
       </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -3607,19 +3927,22 @@
         <v>2002</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I8">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8">
         <v>2.694</v>
       </c>
-      <c r="J8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3639,24 +3962,27 @@
         <v>2002</v>
       </c>
       <c r="G9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J9">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="K9" t="s">
         <v>168</v>
       </c>
-      <c r="H9" t="s">
-        <v>169</v>
-      </c>
-      <c r="I9">
-        <v>2.2629999999999999</v>
-      </c>
-      <c r="J9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -3671,16 +3997,19 @@
         <v>2002</v>
       </c>
       <c r="G10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="K10" t="s">
         <v>168</v>
-      </c>
-      <c r="H10" t="s">
-        <v>169</v>
-      </c>
-      <c r="I10">
-        <v>2.2629999999999999</v>
-      </c>
-      <c r="J10" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3715,10 +4044,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3729,10 +4058,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
         <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -3743,10 +4072,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -3757,10 +4086,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
         <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -3771,10 +4100,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -3785,10 +4114,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -3799,10 +4128,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -3818,10 +4147,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED9D5E6-244D-43BE-B5C9-D0347E19AC0D}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3832,53 +4161,57 @@
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3890,27 +4223,30 @@
         <v>2003</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2">
+        <v>169</v>
+      </c>
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2">
         <v>1.528</v>
       </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3922,24 +4258,27 @@
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3">
+        <v>169</v>
+      </c>
+      <c r="I3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3">
         <v>1.528</v>
       </c>
-      <c r="J3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
@@ -3954,24 +4293,27 @@
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4">
+        <v>164</v>
+      </c>
+      <c r="I4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4">
         <v>2.8580000000000001</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -3986,24 +4328,27 @@
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5">
+        <v>164</v>
+      </c>
+      <c r="I5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5">
         <v>2.8580000000000001</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
@@ -4018,27 +4363,30 @@
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="H6" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6">
+        <v>164</v>
+      </c>
+      <c r="I6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6">
         <v>2.8580000000000001</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -4050,27 +4398,30 @@
         <v>2003</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7">
+        <v>170</v>
+      </c>
+      <c r="I7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7">
         <v>2.8039999999999998</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -4082,27 +4433,30 @@
         <v>2003</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>167</v>
-      </c>
-      <c r="I8">
+        <v>170</v>
+      </c>
+      <c r="I8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8">
         <v>2.8039999999999998</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -4114,24 +4468,27 @@
         <v>2003</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9">
+        <v>170</v>
+      </c>
+      <c r="I9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9">
         <v>2.8039999999999998</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -4146,27 +4503,30 @@
         <v>2003</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>167</v>
-      </c>
-      <c r="I10">
+        <v>170</v>
+      </c>
+      <c r="I10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10">
         <v>2.8039999999999998</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -4178,15 +4538,18 @@
         <v>2003</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>167</v>
-      </c>
-      <c r="I11">
+        <v>170</v>
+      </c>
+      <c r="I11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11">
         <v>2.8039999999999998</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4224,7 +4587,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -4235,10 +4598,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
         <v>110</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4249,10 +4612,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4263,10 +4626,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -4277,10 +4640,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
         <v>115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>117</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4291,10 +4654,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -4305,10 +4668,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" t="s">
-        <v>123</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4319,10 +4682,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
         <v>125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>127</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -4333,7 +4696,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
@@ -4347,10 +4710,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -4361,10 +4724,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4375,10 +4738,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
         <v>132</v>
-      </c>
-      <c r="B13" t="s">
-        <v>134</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -4389,10 +4752,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -4403,7 +4766,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -4417,10 +4780,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16">
         <v>19</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB9FBBF-5712-4AD2-B178-EBE9F8063065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21410812-8EDB-4063-9C6F-5E6D40D560C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="2" activeTab="11" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="11" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="184">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -508,9 +508,6 @@
   </si>
   <si>
     <t>Jour_country</t>
-  </si>
-  <si>
-    <t>Impact_Factor</t>
   </si>
   <si>
     <t>Jour_continent</t>
@@ -1055,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBDEE07-3AF2-42D7-BCDD-9E1F25AB0C7C}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,7 +1066,7 @@
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1089,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>151</v>
@@ -1100,11 +1097,8 @@
       <c r="J1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1124,22 +1118,19 @@
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
         <v>150</v>
       </c>
-      <c r="J2">
-        <v>2.694</v>
-      </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1159,22 +1150,19 @@
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I3" t="s">
         <v>150</v>
       </c>
-      <c r="J3">
-        <v>2.694</v>
-      </c>
-      <c r="K3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -1194,22 +1182,19 @@
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4">
-        <v>2.78</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -1229,22 +1214,19 @@
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J5">
-        <v>2.78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -1264,22 +1246,19 @@
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J6">
-        <v>2.78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -1302,19 +1281,16 @@
         <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I7" t="s">
         <v>150</v>
       </c>
-      <c r="J7">
-        <v>2.694</v>
-      </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1337,19 +1313,16 @@
         <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
         <v>150</v>
       </c>
-      <c r="J8">
-        <v>2.694</v>
-      </c>
-      <c r="K8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1372,19 +1345,16 @@
         <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
         <v>150</v>
       </c>
-      <c r="J9">
-        <v>2.694</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -1407,19 +1377,16 @@
         <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
         <v>150</v>
       </c>
-      <c r="J10">
-        <v>2.694</v>
-      </c>
-      <c r="K10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -1442,19 +1409,16 @@
         <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
       </c>
-      <c r="J11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -1477,19 +1441,16 @@
         <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
       </c>
-      <c r="J12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -1509,22 +1470,19 @@
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" t="s">
         <v>160</v>
       </c>
-      <c r="I13" t="s">
-        <v>161</v>
-      </c>
-      <c r="J13">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -1544,22 +1502,19 @@
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" t="s">
         <v>160</v>
       </c>
-      <c r="I14" t="s">
-        <v>161</v>
-      </c>
-      <c r="J14">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1579,22 +1534,19 @@
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" t="s">
         <v>160</v>
       </c>
-      <c r="I15" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -1614,22 +1566,19 @@
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" t="s">
         <v>160</v>
       </c>
-      <c r="I16" t="s">
-        <v>161</v>
-      </c>
-      <c r="J16">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -1649,22 +1598,19 @@
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" t="s">
         <v>160</v>
       </c>
-      <c r="I17" t="s">
-        <v>161</v>
-      </c>
-      <c r="J17">
-        <v>3.8090000000000002</v>
-      </c>
-      <c r="K17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -1684,22 +1630,19 @@
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" t="s">
         <v>173</v>
       </c>
-      <c r="I18" t="s">
-        <v>174</v>
-      </c>
-      <c r="J18">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -1719,22 +1662,19 @@
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" t="s">
         <v>173</v>
       </c>
-      <c r="I19" t="s">
-        <v>174</v>
-      </c>
-      <c r="J19">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="J19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -1754,22 +1694,19 @@
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" t="s">
         <v>173</v>
       </c>
-      <c r="I20" t="s">
-        <v>174</v>
-      </c>
-      <c r="J20">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1789,22 +1726,19 @@
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
-      </c>
-      <c r="J21">
-        <v>1.3939999999999999</v>
-      </c>
-      <c r="K21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="J21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -1824,18 +1758,15 @@
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I22" t="s">
-        <v>161</v>
-      </c>
-      <c r="J22">
-        <v>1.3939999999999999</v>
-      </c>
-      <c r="K22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1945,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574957B9-3DA1-4413-93C3-2B02B1818122}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1957,7 +1888,7 @@
     <col min="6" max="7" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1977,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>151</v>
@@ -1988,11 +1919,8 @@
       <c r="J1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -2015,16 +1943,16 @@
         <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -2047,16 +1975,16 @@
         <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
         <v>67</v>
       </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -2076,19 +2004,19 @@
         <v>2005</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" t="s">
         <v>177</v>
       </c>
-      <c r="I4" t="s">
-        <v>178</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -2108,19 +2036,19 @@
         <v>2005</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" t="s">
         <v>177</v>
       </c>
-      <c r="I5" t="s">
-        <v>178</v>
-      </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -2140,19 +2068,19 @@
         <v>2005</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" t="s">
         <v>177</v>
       </c>
-      <c r="I6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -2175,19 +2103,16 @@
         <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I7" t="s">
         <v>150</v>
       </c>
-      <c r="J7">
-        <v>2.694</v>
-      </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -2210,19 +2135,16 @@
         <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
         <v>150</v>
       </c>
-      <c r="J8">
-        <v>2.694</v>
-      </c>
-      <c r="K8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>147</v>
       </c>
@@ -2245,16 +2167,16 @@
         <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I9" t="s">
         <v>67</v>
       </c>
-      <c r="K9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -2277,12 +2199,12 @@
         <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I10" t="s">
         <v>67</v>
       </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2293,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E84D51-3BFE-4638-9DD0-BF61EDA22FCF}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2306,11 +2228,10 @@
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.88671875" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2330,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1" t="s">
         <v>151</v>
@@ -2341,11 +2262,8 @@
       <c r="J1" t="s">
         <v>153</v>
       </c>
-      <c r="K1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2368,16 +2286,16 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
         <v>135</v>
       </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2400,16 +2318,16 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I3" t="s">
         <v>135</v>
       </c>
-      <c r="K3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2432,16 +2350,16 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
         <v>135</v>
       </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2464,16 +2382,16 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
         <v>135</v>
       </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2496,16 +2414,16 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" t="s">
         <v>156</v>
       </c>
-      <c r="I6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2528,16 +2446,16 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" t="s">
         <v>156</v>
       </c>
-      <c r="I7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2560,12 +2478,12 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" t="s">
         <v>156</v>
       </c>
-      <c r="I8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2801,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B81E93-D593-4021-8168-5A364216126A}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2814,7 +2732,7 @@
     <col min="8" max="8" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2834,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1" t="s">
         <v>151</v>
@@ -2845,11 +2763,8 @@
       <c r="J1" t="s">
         <v>153</v>
       </c>
-      <c r="K1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2872,16 +2787,16 @@
         <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
         <v>150</v>
       </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2904,16 +2819,16 @@
         <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I3" t="s">
         <v>150</v>
       </c>
-      <c r="K3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2936,16 +2851,16 @@
         <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" t="s">
         <v>150</v>
       </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2968,16 +2883,16 @@
         <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I5" t="s">
         <v>150</v>
       </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -3000,16 +2915,16 @@
         <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I6" t="s">
         <v>150</v>
       </c>
-      <c r="K6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -3029,19 +2944,19 @@
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I7" t="s">
         <v>150</v>
       </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3061,19 +2976,19 @@
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
         <v>150</v>
       </c>
-      <c r="K8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3096,16 +3011,16 @@
         <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
         <v>67</v>
       </c>
-      <c r="K9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -3128,16 +3043,16 @@
         <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
         <v>67</v>
       </c>
-      <c r="K10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3160,16 +3075,16 @@
         <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="K11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3192,16 +3107,16 @@
         <v>67</v>
       </c>
       <c r="H12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" t="s">
         <v>160</v>
       </c>
-      <c r="I12" t="s">
-        <v>161</v>
-      </c>
-      <c r="K12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3224,16 +3139,16 @@
         <v>67</v>
       </c>
       <c r="H13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" t="s">
         <v>160</v>
       </c>
-      <c r="I13" t="s">
-        <v>161</v>
-      </c>
-      <c r="K13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -3256,16 +3171,16 @@
         <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I14" t="s">
         <v>135</v>
       </c>
-      <c r="K14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3288,16 +3203,16 @@
         <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I15" t="s">
         <v>135</v>
       </c>
-      <c r="K15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -3320,16 +3235,16 @@
         <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I16" t="s">
         <v>135</v>
       </c>
-      <c r="K16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -3352,16 +3267,16 @@
         <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I17" t="s">
         <v>135</v>
       </c>
-      <c r="K17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -3384,16 +3299,16 @@
         <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I18" t="s">
         <v>135</v>
       </c>
-      <c r="K18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -3416,16 +3331,16 @@
         <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I19" t="s">
         <v>70</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -3448,16 +3363,16 @@
         <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I20" t="s">
         <v>70</v>
       </c>
-      <c r="K20" t="s">
+      <c r="J20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -3477,19 +3392,19 @@
         <v>2001</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" t="s">
         <v>160</v>
       </c>
-      <c r="I21" t="s">
-        <v>161</v>
-      </c>
-      <c r="K21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -3509,15 +3424,15 @@
         <v>2001</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H22" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" t="s">
         <v>160</v>
       </c>
-      <c r="I22" t="s">
-        <v>161</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="J22" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3641,10 +3556,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB4A4F7-DD1D-4CA4-9E07-26648F9326F0}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3658,11 +3573,10 @@
     <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.109375" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3685,7 +3599,7 @@
         <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>152</v>
@@ -3693,11 +3607,8 @@
       <c r="J1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -3717,22 +3628,19 @@
         <v>2002</v>
       </c>
       <c r="G2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="s">
         <v>164</v>
       </c>
-      <c r="H2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2">
-        <v>2.8580000000000001</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -3752,22 +3660,19 @@
         <v>2002</v>
       </c>
       <c r="G3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" t="s">
         <v>164</v>
       </c>
-      <c r="H3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J3">
-        <v>2.8580000000000001</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -3787,7 +3692,7 @@
         <v>2002</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
         <v>67</v>
@@ -3795,14 +3700,11 @@
       <c r="I4" t="s">
         <v>150</v>
       </c>
-      <c r="J4">
-        <v>2.694</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -3822,7 +3724,7 @@
         <v>2002</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" t="s">
         <v>67</v>
@@ -3830,14 +3732,11 @@
       <c r="I5" t="s">
         <v>150</v>
       </c>
-      <c r="J5">
-        <v>2.694</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -3857,7 +3756,7 @@
         <v>2002</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H6" t="s">
         <v>67</v>
@@ -3865,14 +3764,11 @@
       <c r="I6" t="s">
         <v>150</v>
       </c>
-      <c r="J6">
-        <v>2.694</v>
-      </c>
-      <c r="K6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -3892,7 +3788,7 @@
         <v>2002</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H7" t="s">
         <v>67</v>
@@ -3900,14 +3796,11 @@
       <c r="I7" t="s">
         <v>150</v>
       </c>
-      <c r="J7">
-        <v>2.694</v>
-      </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -3927,7 +3820,7 @@
         <v>2002</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H8" t="s">
         <v>67</v>
@@ -3935,14 +3828,11 @@
       <c r="I8" t="s">
         <v>150</v>
       </c>
-      <c r="J8">
-        <v>2.694</v>
-      </c>
-      <c r="K8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3962,22 +3852,19 @@
         <v>2002</v>
       </c>
       <c r="G9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" t="s">
         <v>166</v>
       </c>
-      <c r="H9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>167</v>
       </c>
-      <c r="J9">
-        <v>2.2629999999999999</v>
-      </c>
-      <c r="K9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -3997,19 +3884,16 @@
         <v>2002</v>
       </c>
       <c r="G10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" t="s">
         <v>166</v>
       </c>
-      <c r="H10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>167</v>
-      </c>
-      <c r="J10">
-        <v>2.2629999999999999</v>
-      </c>
-      <c r="K10" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4147,10 +4031,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED9D5E6-244D-43BE-B5C9-D0347E19AC0D}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4164,11 +4048,10 @@
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4188,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>151</v>
@@ -4199,11 +4082,8 @@
       <c r="J1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -4223,22 +4103,19 @@
         <v>2003</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
         <v>135</v>
       </c>
-      <c r="J2">
-        <v>1.528</v>
-      </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -4258,22 +4135,19 @@
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I3" t="s">
         <v>135</v>
       </c>
-      <c r="J3">
-        <v>1.528</v>
-      </c>
-      <c r="K3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -4293,22 +4167,19 @@
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" t="s">
         <v>164</v>
       </c>
-      <c r="I4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J4">
-        <v>2.8580000000000001</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -4328,22 +4199,19 @@
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" t="s">
         <v>164</v>
       </c>
-      <c r="I5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5">
-        <v>2.8580000000000001</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -4363,22 +4231,19 @@
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" t="s">
         <v>164</v>
       </c>
-      <c r="I6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6">
-        <v>2.8580000000000001</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -4401,19 +4266,16 @@
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J7">
-        <v>2.8039999999999998</v>
-      </c>
-      <c r="K7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -4436,19 +4298,16 @@
         <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
-      </c>
-      <c r="J8">
-        <v>2.8039999999999998</v>
-      </c>
-      <c r="K8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -4471,19 +4330,16 @@
         <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J9">
-        <v>2.8039999999999998</v>
-      </c>
-      <c r="K9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -4506,19 +4362,16 @@
         <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J10">
-        <v>2.8039999999999998</v>
-      </c>
-      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -4541,15 +4394,12 @@
         <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11">
-        <v>2.8039999999999998</v>
-      </c>
-      <c r="K11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" t="s">
         <v>72</v>
       </c>
     </row>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21410812-8EDB-4063-9C6F-5E6D40D560C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="11" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
@@ -1062,8 +1062,9 @@
   <cols>
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1886,6 +1887,9 @@
   <cols>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -2218,7 +2222,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2722,45 +2726,46 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3559,7 +3564,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3570,9 +3575,9 @@
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3596,10 +3601,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>152</v>
@@ -3628,10 +3633,10 @@
         <v>2002</v>
       </c>
       <c r="G2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" t="s">
         <v>163</v>
-      </c>
-      <c r="H2" t="s">
-        <v>156</v>
       </c>
       <c r="I2" t="s">
         <v>164</v>
@@ -3660,10 +3665,10 @@
         <v>2002</v>
       </c>
       <c r="G3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" t="s">
         <v>163</v>
-      </c>
-      <c r="H3" t="s">
-        <v>156</v>
       </c>
       <c r="I3" t="s">
         <v>164</v>
@@ -3692,10 +3697,10 @@
         <v>2002</v>
       </c>
       <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
         <v>157</v>
-      </c>
-      <c r="H4" t="s">
-        <v>67</v>
       </c>
       <c r="I4" t="s">
         <v>150</v>
@@ -3724,10 +3729,10 @@
         <v>2002</v>
       </c>
       <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
         <v>157</v>
-      </c>
-      <c r="H5" t="s">
-        <v>67</v>
       </c>
       <c r="I5" t="s">
         <v>150</v>
@@ -3756,10 +3761,10 @@
         <v>2002</v>
       </c>
       <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
         <v>157</v>
-      </c>
-      <c r="H6" t="s">
-        <v>67</v>
       </c>
       <c r="I6" t="s">
         <v>150</v>
@@ -3788,10 +3793,10 @@
         <v>2002</v>
       </c>
       <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
         <v>157</v>
-      </c>
-      <c r="H7" t="s">
-        <v>67</v>
       </c>
       <c r="I7" t="s">
         <v>150</v>
@@ -3820,10 +3825,10 @@
         <v>2002</v>
       </c>
       <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
         <v>157</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
       </c>
       <c r="I8" t="s">
         <v>150</v>
@@ -3852,10 +3857,10 @@
         <v>2002</v>
       </c>
       <c r="G9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" t="s">
         <v>165</v>
-      </c>
-      <c r="H9" t="s">
-        <v>180</v>
       </c>
       <c r="I9" t="s">
         <v>166</v>
@@ -3884,10 +3889,10 @@
         <v>2002</v>
       </c>
       <c r="G10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" t="s">
         <v>165</v>
-      </c>
-      <c r="H10" t="s">
-        <v>180</v>
       </c>
       <c r="I10" t="s">
         <v>166</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A15C2B19-D42C-410B-8A69-67D45DA475BC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="11" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="2" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>Lugo, A</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>Lozano, LM</t>
   </si>
   <si>
@@ -601,6 +598,9 @@
   </si>
   <si>
     <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>ALFL</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -953,7 +953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1087,88 +1087,88 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
         <v>107</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1183,24 +1183,24 @@
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
         <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1215,59 +1215,59 @@
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1279,27 +1279,27 @@
         <v>2004</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1311,27 +1311,27 @@
         <v>2004</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1343,27 +1343,27 @@
         <v>2004</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
         <v>116</v>
       </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1375,27 +1375,27 @@
         <v>2004</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
         <v>118</v>
       </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1407,10 +1407,10 @@
         <v>2004</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
@@ -1421,13 +1421,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
         <v>120</v>
       </c>
-      <c r="B12" t="s">
-        <v>121</v>
-      </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1439,10 +1439,10 @@
         <v>2004</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
@@ -1453,322 +1453,322 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
         <v>122</v>
       </c>
-      <c r="B13" t="s">
-        <v>123</v>
-      </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13">
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" t="s">
         <v>159</v>
       </c>
-      <c r="I13" t="s">
-        <v>160</v>
-      </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
         <v>124</v>
       </c>
-      <c r="B14" t="s">
-        <v>125</v>
-      </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" t="s">
         <v>159</v>
       </c>
-      <c r="I14" t="s">
-        <v>160</v>
-      </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15">
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" t="s">
         <v>159</v>
       </c>
-      <c r="I15" t="s">
-        <v>160</v>
-      </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" t="s">
         <v>159</v>
       </c>
-      <c r="I16" t="s">
-        <v>160</v>
-      </c>
       <c r="J16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
         <v>127</v>
       </c>
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" t="s">
         <v>159</v>
       </c>
-      <c r="I17" t="s">
-        <v>160</v>
-      </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
         <v>129</v>
       </c>
-      <c r="B18" t="s">
-        <v>130</v>
-      </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18">
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H18" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" t="s">
         <v>172</v>
       </c>
-      <c r="I18" t="s">
-        <v>173</v>
-      </c>
       <c r="J18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
         <v>131</v>
       </c>
-      <c r="B19" t="s">
-        <v>132</v>
-      </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19">
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H19" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" t="s">
         <v>172</v>
       </c>
-      <c r="I19" t="s">
-        <v>173</v>
-      </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" t="s">
         <v>133</v>
       </c>
-      <c r="B20" t="s">
-        <v>134</v>
-      </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20">
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H20" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" t="s">
         <v>172</v>
       </c>
-      <c r="I20" t="s">
-        <v>173</v>
-      </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22">
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1879,7 +1879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574957B9-3DA1-4413-93C3-2B02B1818122}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1912,27 +1912,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
         <v>137</v>
       </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1944,13 +1944,13 @@
         <v>2005</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -1958,13 +1958,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
-        <v>140</v>
-      </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1976,13 +1976,13 @@
         <v>2005</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -1990,10 +1990,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
         <v>141</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2008,13 +2008,13 @@
         <v>2005</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" t="s">
         <v>176</v>
-      </c>
-      <c r="I4" t="s">
-        <v>177</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -2022,13 +2022,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
         <v>143</v>
       </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2040,13 +2040,13 @@
         <v>2005</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" t="s">
         <v>176</v>
-      </c>
-      <c r="I5" t="s">
-        <v>177</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -2054,31 +2054,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
         <v>145</v>
       </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>2005</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" t="s">
         <v>176</v>
-      </c>
-      <c r="I6" t="s">
-        <v>177</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2086,13 +2086,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" t="s">
-        <v>121</v>
-      </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2104,27 +2104,27 @@
         <v>2005</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
         <v>147</v>
       </c>
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -2136,27 +2136,27 @@
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -2168,13 +2168,13 @@
         <v>2005</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -2182,13 +2182,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
         <v>120</v>
       </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2200,13 +2200,13 @@
         <v>2005</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
@@ -2255,16 +2255,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>152</v>
-      </c>
-      <c r="J1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2290,13 +2290,13 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2322,13 +2322,13 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2354,13 +2354,13 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2386,13 +2386,13 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2418,10 +2418,10 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" t="s">
         <v>155</v>
-      </c>
-      <c r="I6" t="s">
-        <v>156</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2450,10 +2450,10 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" t="s">
         <v>155</v>
-      </c>
-      <c r="I7" t="s">
-        <v>156</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -2482,10 +2482,10 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" t="s">
         <v>155</v>
-      </c>
-      <c r="I8" t="s">
-        <v>156</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
@@ -2500,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4F261F-5EF4-48DE-9CDF-B5EA487C153B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2539,7 +2539,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2567,7 +2567,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2578,10 +2578,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2606,10 +2606,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -2690,10 +2690,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -2704,10 +2704,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -2726,7 +2726,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2757,16 +2757,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2777,7 +2777,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2789,16 +2789,16 @@
         <v>2001</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2809,7 +2809,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2821,16 +2821,16 @@
         <v>2001</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2838,10 +2838,10 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2853,27 +2853,27 @@
         <v>2001</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2885,27 +2885,27 @@
         <v>2001</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2917,91 +2917,91 @@
         <v>2001</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3013,13 +3013,13 @@
         <v>2001</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -3027,13 +3027,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -3045,13 +3045,13 @@
         <v>2001</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
@@ -3059,13 +3059,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -3077,13 +3077,13 @@
         <v>2001</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
@@ -3091,13 +3091,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -3109,27 +3109,27 @@
         <v>2001</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" t="s">
         <v>159</v>
       </c>
-      <c r="I12" t="s">
-        <v>160</v>
-      </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -3141,59 +3141,59 @@
         <v>2001</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" t="s">
         <v>159</v>
       </c>
-      <c r="I13" t="s">
-        <v>160</v>
-      </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14">
         <v>2001</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -3205,27 +3205,27 @@
         <v>2001</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -3237,27 +3237,27 @@
         <v>2001</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -3269,27 +3269,27 @@
         <v>2001</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -3301,27 +3301,27 @@
         <v>2001</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -3333,27 +3333,27 @@
         <v>2001</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -3365,80 +3365,80 @@
         <v>2001</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21">
         <v>2001</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" t="s">
         <v>159</v>
       </c>
-      <c r="I21" t="s">
-        <v>160</v>
-      </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22">
         <v>2001</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" t="s">
         <v>159</v>
       </c>
-      <c r="I22" t="s">
-        <v>160</v>
-      </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3472,10 +3472,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
         <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -3500,10 +3500,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3542,10 +3542,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3601,91 +3601,91 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" t="s">
         <v>163</v>
       </c>
-      <c r="I2" t="s">
-        <v>164</v>
-      </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" t="s">
         <v>163</v>
       </c>
-      <c r="I3" t="s">
-        <v>164</v>
-      </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3697,27 +3697,27 @@
         <v>2002</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3729,27 +3729,27 @@
         <v>2002</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3761,27 +3761,27 @@
         <v>2002</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3793,27 +3793,27 @@
         <v>2002</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -3825,80 +3825,80 @@
         <v>2002</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>2002</v>
       </c>
       <c r="G9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" t="s">
         <v>165</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>166</v>
-      </c>
-      <c r="J9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
         <v>85</v>
       </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>2002</v>
       </c>
       <c r="G10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" t="s">
         <v>165</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>166</v>
-      </c>
-      <c r="J10" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3933,10 +3933,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3947,10 +3947,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -3975,10 +3975,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -3989,10 +3989,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4003,10 +4003,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -4076,283 +4076,283 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>2003</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" t="s">
         <v>163</v>
       </c>
-      <c r="I4" t="s">
-        <v>164</v>
-      </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" t="s">
         <v>163</v>
       </c>
-      <c r="I5" t="s">
-        <v>164</v>
-      </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" t="s">
         <v>163</v>
       </c>
-      <c r="I6" t="s">
-        <v>164</v>
-      </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
         <v>97</v>
       </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>2003</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
         <v>99</v>
       </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>2003</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
         <v>101</v>
       </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>2003</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -4364,48 +4364,48 @@
         <v>2003</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11">
         <v>2003</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4439,10 +4439,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -4453,10 +4453,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4481,10 +4481,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
         <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -4495,10 +4495,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4509,10 +4509,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -4523,10 +4523,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -4565,10 +4565,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -4579,10 +4579,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -4607,10 +4607,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -4635,10 +4635,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>19</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A15C2B19-D42C-410B-8A69-67D45DA475BC}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{100A510B-36F2-48AE-8819-6B35EDCF9781}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="2" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="11" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="183">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -270,9 +270,6 @@
     <t>JB</t>
   </si>
   <si>
-    <t>DFB</t>
-  </si>
-  <si>
     <t>DFBP</t>
   </si>
   <si>
@@ -318,9 +315,6 @@
     <t>Jacobsen, D</t>
   </si>
   <si>
-    <t>DJ</t>
-  </si>
-  <si>
     <t>Sites, RW</t>
   </si>
   <si>
@@ -387,9 +381,6 @@
     <t>KMW</t>
   </si>
   <si>
-    <t>DNFB</t>
-  </si>
-  <si>
     <t>DRFB</t>
   </si>
   <si>
@@ -601,6 +592,12 @@
   </si>
   <si>
     <t>ALFL</t>
+  </si>
+  <si>
+    <t>DANFB</t>
+  </si>
+  <si>
+    <t>DENJD</t>
   </si>
 </sst>
 </file>
@@ -662,6 +659,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,7 +1056,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,16 +1088,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1119,13 +1120,13 @@
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J2" t="s">
         <v>70</v>
@@ -1133,7 +1134,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -1151,13 +1152,13 @@
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J3" t="s">
         <v>70</v>
@@ -1165,10 +1166,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1183,13 +1184,13 @@
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J4" t="s">
         <v>70</v>
@@ -1197,10 +1198,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1215,13 +1216,13 @@
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J5" t="s">
         <v>70</v>
@@ -1229,13 +1230,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1247,13 +1248,13 @@
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J6" t="s">
         <v>70</v>
@@ -1261,10 +1262,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -1282,10 +1283,10 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
         <v>70</v>
@@ -1293,10 +1294,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -1314,10 +1315,10 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J8" t="s">
         <v>70</v>
@@ -1325,10 +1326,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -1346,10 +1347,10 @@
         <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J9" t="s">
         <v>70</v>
@@ -1357,10 +1358,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -1378,10 +1379,10 @@
         <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J10" t="s">
         <v>70</v>
@@ -1389,10 +1390,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -1410,7 +1411,7 @@
         <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
@@ -1421,10 +1422,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -1442,7 +1443,7 @@
         <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
@@ -1453,10 +1454,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
@@ -1471,13 +1472,13 @@
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
         <v>70</v>
@@ -1485,10 +1486,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
         <v>69</v>
@@ -1503,13 +1504,13 @@
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
         <v>70</v>
@@ -1535,13 +1536,13 @@
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
         <v>70</v>
@@ -1549,10 +1550,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
@@ -1567,13 +1568,13 @@
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
         <v>70</v>
@@ -1581,10 +1582,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -1599,13 +1600,13 @@
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
         <v>70</v>
@@ -1613,13 +1614,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -1631,13 +1632,13 @@
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
         <v>71</v>
@@ -1645,13 +1646,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1663,13 +1664,13 @@
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
         <v>71</v>
@@ -1677,13 +1678,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
         <v>132</v>
-      </c>
-      <c r="B20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" t="s">
-        <v>135</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -1695,13 +1696,13 @@
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
         <v>71</v>
@@ -1727,13 +1728,13 @@
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J21" t="s">
         <v>70</v>
@@ -1741,7 +1742,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -1759,13 +1760,13 @@
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J22" t="s">
         <v>70</v>
@@ -1802,10 +1803,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1816,10 +1817,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1830,10 +1831,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1844,10 +1845,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1858,10 +1859,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1879,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574957B9-3DA1-4413-93C3-2B02B1818122}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1912,24 +1913,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -1947,7 +1948,7 @@
         <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
         <v>66</v>
@@ -1958,10 +1959,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -1979,7 +1980,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I3" t="s">
         <v>66</v>
@@ -1990,10 +1991,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2008,13 +2009,13 @@
         <v>2005</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -2022,10 +2023,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -2040,13 +2041,13 @@
         <v>2005</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -2054,13 +2055,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -2072,13 +2073,13 @@
         <v>2005</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2086,10 +2087,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -2107,10 +2108,10 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
         <v>70</v>
@@ -2118,10 +2119,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -2139,10 +2140,10 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J8" t="s">
         <v>70</v>
@@ -2150,10 +2151,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -2171,7 +2172,7 @@
         <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I9" t="s">
         <v>66</v>
@@ -2182,10 +2183,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -2203,7 +2204,7 @@
         <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I10" t="s">
         <v>66</v>
@@ -2255,16 +2256,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2290,10 +2291,10 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
         <v>70</v>
@@ -2322,10 +2323,10 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
         <v>70</v>
@@ -2354,10 +2355,10 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
         <v>70</v>
@@ -2386,10 +2387,10 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
         <v>70</v>
@@ -2418,10 +2419,10 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2450,10 +2451,10 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -2482,10 +2483,10 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
@@ -2500,7 +2501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4F261F-5EF4-48DE-9CDF-B5EA487C153B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2539,7 +2540,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2757,16 +2758,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2792,10 +2793,10 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J2" t="s">
         <v>70</v>
@@ -2824,10 +2825,10 @@
         <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J3" t="s">
         <v>70</v>
@@ -2838,7 +2839,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -2856,10 +2857,10 @@
         <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J4" t="s">
         <v>70</v>
@@ -2888,10 +2889,10 @@
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J5" t="s">
         <v>70</v>
@@ -2920,10 +2921,10 @@
         <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J6" t="s">
         <v>70</v>
@@ -2949,13 +2950,13 @@
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
         <v>70</v>
@@ -2981,13 +2982,13 @@
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J8" t="s">
         <v>70</v>
@@ -3016,7 +3017,7 @@
         <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I9" t="s">
         <v>66</v>
@@ -3048,7 +3049,7 @@
         <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
         <v>66</v>
@@ -3080,7 +3081,7 @@
         <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
         <v>66</v>
@@ -3112,10 +3113,10 @@
         <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J12" t="s">
         <v>70</v>
@@ -3144,10 +3145,10 @@
         <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
         <v>70</v>
@@ -3176,10 +3177,10 @@
         <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
         <v>70</v>
@@ -3208,10 +3209,10 @@
         <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
         <v>70</v>
@@ -3240,10 +3241,10 @@
         <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
         <v>70</v>
@@ -3272,10 +3273,10 @@
         <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
         <v>70</v>
@@ -3304,10 +3305,10 @@
         <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J18" t="s">
         <v>70</v>
@@ -3336,7 +3337,7 @@
         <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I19" t="s">
         <v>69</v>
@@ -3368,7 +3369,7 @@
         <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I20" t="s">
         <v>69</v>
@@ -3397,13 +3398,13 @@
         <v>2001</v>
       </c>
       <c r="G21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" t="s">
         <v>155</v>
       </c>
-      <c r="H21" t="s">
-        <v>158</v>
-      </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J21" t="s">
         <v>70</v>
@@ -3429,13 +3430,13 @@
         <v>2001</v>
       </c>
       <c r="G22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" t="s">
         <v>155</v>
       </c>
-      <c r="H22" t="s">
-        <v>158</v>
-      </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J22" t="s">
         <v>70</v>
@@ -3451,7 +3452,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3486,10 +3487,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -3500,10 +3501,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3514,10 +3515,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3528,10 +3529,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3545,7 +3546,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3564,13 +3565,13 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
@@ -3601,16 +3602,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3633,13 +3634,13 @@
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J2" t="s">
         <v>71</v>
@@ -3647,7 +3648,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -3665,13 +3666,13 @@
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J3" t="s">
         <v>71</v>
@@ -3679,10 +3680,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -3700,10 +3701,10 @@
         <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J4" t="s">
         <v>70</v>
@@ -3711,10 +3712,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -3732,10 +3733,10 @@
         <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J5" t="s">
         <v>70</v>
@@ -3743,10 +3744,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -3764,10 +3765,10 @@
         <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J6" t="s">
         <v>70</v>
@@ -3775,10 +3776,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -3796,10 +3797,10 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
         <v>70</v>
@@ -3807,10 +3808,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -3828,10 +3829,10 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J8" t="s">
         <v>70</v>
@@ -3857,24 +3858,24 @@
         <v>2002</v>
       </c>
       <c r="G9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
         <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
@@ -3889,16 +3890,16 @@
         <v>2002</v>
       </c>
       <c r="G10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3912,7 +3913,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3933,10 +3934,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3947,10 +3948,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -3961,10 +3962,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -3975,10 +3976,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
         <v>97</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -3989,10 +3990,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4003,10 +4004,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -4017,10 +4018,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -4039,13 +4040,13 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -4076,27 +4077,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4108,13 +4109,13 @@
         <v>2003</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
         <v>70</v>
@@ -4122,13 +4123,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4140,13 +4141,13 @@
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
         <v>70</v>
@@ -4154,10 +4155,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -4172,13 +4173,13 @@
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J4" t="s">
         <v>71</v>
@@ -4186,10 +4187,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -4204,13 +4205,13 @@
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J5" t="s">
         <v>71</v>
@@ -4218,10 +4219,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>69</v>
@@ -4236,13 +4237,13 @@
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J6" t="s">
         <v>71</v>
@@ -4250,13 +4251,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -4271,10 +4272,10 @@
         <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J7" t="s">
         <v>71</v>
@@ -4282,13 +4283,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -4303,10 +4304,10 @@
         <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J8" t="s">
         <v>71</v>
@@ -4314,13 +4315,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -4335,10 +4336,10 @@
         <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J9" t="s">
         <v>71</v>
@@ -4346,10 +4347,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -4367,10 +4368,10 @@
         <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J10" t="s">
         <v>71</v>
@@ -4378,13 +4379,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -4399,10 +4400,10 @@
         <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J11" t="s">
         <v>71</v>
@@ -4418,7 +4419,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4453,10 +4454,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4467,10 +4468,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4481,10 +4482,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -4495,10 +4496,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4509,10 +4510,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -4523,10 +4524,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4537,10 +4538,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -4551,7 +4552,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -4565,10 +4566,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -4579,10 +4580,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4593,10 +4594,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -4607,10 +4608,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -4621,7 +4622,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -4635,7 +4636,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{100A510B-36F2-48AE-8819-6B35EDCF9781}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E972319E-0136-439E-AC14-21DEDE182AB9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="11" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="2" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -219,9 +219,6 @@
     <t>Salinas, G</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>Marin, R</t>
   </si>
   <si>
@@ -598,6 +595,9 @@
   </si>
   <si>
     <t>DENJD</t>
+  </si>
+  <si>
+    <t>GIOSL</t>
   </si>
 </sst>
 </file>
@@ -1088,16 +1088,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1108,68 +1108,68 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
         <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1184,24 +1184,24 @@
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
         <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1216,59 +1216,59 @@
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1280,27 +1280,27 @@
         <v>2004</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1312,27 +1312,27 @@
         <v>2004</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1344,27 +1344,27 @@
         <v>2004</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
         <v>112</v>
       </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1376,27 +1376,27 @@
         <v>2004</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
         <v>114</v>
       </c>
-      <c r="B11" t="s">
-        <v>115</v>
-      </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1408,10 +1408,10 @@
         <v>2004</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
         <v>116</v>
       </c>
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>2004</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
@@ -1454,258 +1454,258 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
         <v>118</v>
       </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" t="s">
         <v>155</v>
       </c>
-      <c r="I13" t="s">
-        <v>156</v>
-      </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
         <v>120</v>
       </c>
-      <c r="B14" t="s">
-        <v>121</v>
-      </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14">
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" t="s">
         <v>155</v>
       </c>
-      <c r="I14" t="s">
-        <v>156</v>
-      </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15">
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H15" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" t="s">
         <v>155</v>
       </c>
-      <c r="I15" t="s">
-        <v>156</v>
-      </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16">
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" t="s">
         <v>155</v>
       </c>
-      <c r="I16" t="s">
-        <v>156</v>
-      </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
         <v>123</v>
       </c>
-      <c r="B17" t="s">
-        <v>124</v>
-      </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17">
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H17" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" t="s">
         <v>155</v>
       </c>
-      <c r="I17" t="s">
-        <v>156</v>
-      </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
         <v>125</v>
       </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18">
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" t="s">
         <v>168</v>
       </c>
-      <c r="I18" t="s">
-        <v>169</v>
-      </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
         <v>127</v>
       </c>
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19">
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H19" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" t="s">
         <v>168</v>
       </c>
-      <c r="I19" t="s">
-        <v>169</v>
-      </c>
       <c r="J19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" t="s">
         <v>168</v>
       </c>
-      <c r="I20" t="s">
-        <v>169</v>
-      </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1716,60 +1716,60 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21">
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22">
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1880,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574957B9-3DA1-4413-93C3-2B02B1818122}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1913,27 +1913,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1945,13 +1945,13 @@
         <v>2005</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
         <v>135</v>
       </c>
-      <c r="B3" t="s">
-        <v>136</v>
-      </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1977,13 +1977,13 @@
         <v>2005</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
         <v>137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2009,13 +2009,13 @@
         <v>2005</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" t="s">
         <v>172</v>
-      </c>
-      <c r="I4" t="s">
-        <v>173</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -2023,13 +2023,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
         <v>139</v>
       </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2041,13 +2041,13 @@
         <v>2005</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" t="s">
         <v>172</v>
-      </c>
-      <c r="I5" t="s">
-        <v>173</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
         <v>141</v>
       </c>
-      <c r="B6" t="s">
-        <v>142</v>
-      </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>2005</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" t="s">
         <v>172</v>
-      </c>
-      <c r="I6" t="s">
-        <v>173</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2087,13 +2087,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
         <v>116</v>
       </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2105,27 +2105,27 @@
         <v>2005</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
         <v>143</v>
       </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -2137,27 +2137,27 @@
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
         <v>143</v>
       </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -2169,13 +2169,13 @@
         <v>2005</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
         <v>116</v>
       </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2201,13 +2201,13 @@
         <v>2005</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
@@ -2256,16 +2256,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" t="s">
         <v>147</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>148</v>
-      </c>
-      <c r="J1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2291,13 +2291,13 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2323,13 +2323,13 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2355,13 +2355,13 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2387,13 +2387,13 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2419,10 +2419,10 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="s">
         <v>151</v>
-      </c>
-      <c r="I6" t="s">
-        <v>152</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2451,10 +2451,10 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" t="s">
         <v>151</v>
-      </c>
-      <c r="I7" t="s">
-        <v>152</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -2483,10 +2483,10 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" t="s">
         <v>151</v>
-      </c>
-      <c r="I8" t="s">
-        <v>152</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
@@ -2501,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4F261F-5EF4-48DE-9CDF-B5EA487C153B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2540,7 +2540,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2666,7 +2666,7 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2680,7 +2680,7 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -2705,10 +2705,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -2727,7 +2727,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2758,16 +2758,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2778,7 +2778,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2790,16 +2790,16 @@
         <v>2001</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2810,7 +2810,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2822,16 +2822,16 @@
         <v>2001</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2839,10 +2839,10 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2854,16 +2854,16 @@
         <v>2001</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2874,7 +2874,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2886,16 +2886,16 @@
         <v>2001</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2906,7 +2906,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2918,16 +2918,16 @@
         <v>2001</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2938,28 +2938,28 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2970,28 +2970,28 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3002,7 +3002,7 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3014,13 +3014,13 @@
         <v>2001</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -3034,7 +3034,7 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -3046,13 +3046,13 @@
         <v>2001</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
@@ -3066,7 +3066,7 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -3078,13 +3078,13 @@
         <v>2001</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
@@ -3098,7 +3098,7 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -3110,16 +3110,16 @@
         <v>2001</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" t="s">
         <v>155</v>
       </c>
-      <c r="I12" t="s">
-        <v>156</v>
-      </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3130,7 +3130,7 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -3142,16 +3142,16 @@
         <v>2001</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" t="s">
         <v>155</v>
       </c>
-      <c r="I13" t="s">
-        <v>156</v>
-      </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -3162,28 +3162,28 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <v>2001</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -3194,7 +3194,7 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -3206,16 +3206,16 @@
         <v>2001</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3226,7 +3226,7 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -3238,16 +3238,16 @@
         <v>2001</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3255,10 +3255,10 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -3270,27 +3270,27 @@
         <v>2001</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -3302,16 +3302,16 @@
         <v>2001</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3322,7 +3322,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -3334,16 +3334,16 @@
         <v>2001</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3354,7 +3354,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -3366,80 +3366,80 @@
         <v>2001</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>2001</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" t="s">
         <v>155</v>
       </c>
-      <c r="I21" t="s">
-        <v>156</v>
-      </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22">
         <v>2001</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" t="s">
         <v>155</v>
       </c>
-      <c r="I22" t="s">
-        <v>156</v>
-      </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3476,7 +3476,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -3501,10 +3501,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3515,10 +3515,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3529,10 +3529,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3546,7 +3546,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3602,16 +3602,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3622,71 +3622,71 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" t="s">
         <v>159</v>
       </c>
-      <c r="I2" t="s">
-        <v>160</v>
-      </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" t="s">
         <v>159</v>
       </c>
-      <c r="I3" t="s">
-        <v>160</v>
-      </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3698,27 +3698,27 @@
         <v>2002</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3730,27 +3730,27 @@
         <v>2002</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3762,27 +3762,27 @@
         <v>2002</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3794,27 +3794,27 @@
         <v>2002</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -3826,16 +3826,16 @@
         <v>2002</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3846,60 +3846,60 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>2002</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" t="s">
         <v>161</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>162</v>
-      </c>
-      <c r="J9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10">
         <v>2002</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" t="s">
         <v>161</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>162</v>
-      </c>
-      <c r="J10" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3948,10 +3948,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -3976,10 +3976,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -3990,10 +3990,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4004,10 +4004,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -4018,10 +4018,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -4077,283 +4077,283 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>2003</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" t="s">
         <v>159</v>
       </c>
-      <c r="I4" t="s">
-        <v>160</v>
-      </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" t="s">
         <v>159</v>
       </c>
-      <c r="I5" t="s">
-        <v>160</v>
-      </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" t="s">
         <v>159</v>
       </c>
-      <c r="I6" t="s">
-        <v>160</v>
-      </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>2003</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
         <v>96</v>
       </c>
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <v>2003</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>2003</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
         <v>100</v>
       </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -4365,48 +4365,48 @@
         <v>2003</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
         <v>102</v>
       </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>2003</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4443,7 +4443,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4482,10 +4482,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -4496,10 +4496,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4510,10 +4510,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -4524,10 +4524,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4538,10 +4538,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -4552,10 +4552,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -4608,10 +4608,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>19</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E972319E-0136-439E-AC14-21DEDE182AB9}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72DE6DE6-06C7-4E05-B70B-85AFE4E9B760}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="2" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="184">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -228,9 +228,6 @@
     <t>Ramirez, A</t>
   </si>
   <si>
-    <t>AR</t>
-  </si>
-  <si>
     <t>Pringle, CM</t>
   </si>
   <si>
@@ -426,9 +423,6 @@
     <t>Fenoglio, S</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>Bo, T</t>
   </si>
   <si>
@@ -598,6 +592,15 @@
   </si>
   <si>
     <t>GIOSL</t>
+  </si>
+  <si>
+    <t>STEFEN</t>
+  </si>
+  <si>
+    <t>LUZBOY</t>
+  </si>
+  <si>
+    <t>ALORAM</t>
   </si>
 </sst>
 </file>
@@ -661,12 +664,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1056,7 +1055,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,16 +1087,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1105,71 +1104,71 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1184,24 +1183,24 @@
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
         <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1216,59 +1215,59 @@
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1280,27 +1279,27 @@
         <v>2004</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1312,27 +1311,27 @@
         <v>2004</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1344,27 +1343,27 @@
         <v>2004</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
         <v>111</v>
       </c>
-      <c r="B10" t="s">
-        <v>112</v>
-      </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1376,27 +1375,27 @@
         <v>2004</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
         <v>113</v>
       </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1408,10 +1407,10 @@
         <v>2004</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
@@ -1422,13 +1421,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
         <v>115</v>
       </c>
-      <c r="B12" t="s">
-        <v>116</v>
-      </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1440,10 +1439,10 @@
         <v>2004</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
@@ -1454,258 +1453,258 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
         <v>117</v>
       </c>
-      <c r="B13" t="s">
-        <v>118</v>
-      </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
         <v>119</v>
       </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16">
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
         <v>122</v>
       </c>
-      <c r="B17" t="s">
-        <v>123</v>
-      </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17">
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18">
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19">
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
         <v>129</v>
-      </c>
-      <c r="C20" t="s">
-        <v>131</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20">
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1713,63 +1712,63 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21">
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22">
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1803,10 +1802,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1817,10 +1816,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
         <v>137</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1831,10 +1830,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1845,10 +1844,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1859,10 +1858,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1913,27 +1912,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1945,13 +1944,13 @@
         <v>2005</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -1959,13 +1958,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1977,13 +1976,13 @@
         <v>2005</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -1991,10 +1990,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2009,13 +2008,13 @@
         <v>2005</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -2023,13 +2022,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2041,13 +2040,13 @@
         <v>2005</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -2055,31 +2054,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>2005</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2087,13 +2086,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
         <v>115</v>
       </c>
-      <c r="B7" t="s">
-        <v>116</v>
-      </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2105,27 +2104,27 @@
         <v>2005</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -2137,27 +2136,27 @@
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -2169,13 +2168,13 @@
         <v>2005</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -2183,13 +2182,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2201,13 +2200,13 @@
         <v>2005</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
@@ -2256,16 +2255,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" t="s">
         <v>146</v>
-      </c>
-      <c r="I1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2291,13 +2290,13 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2323,13 +2322,13 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2355,13 +2354,13 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2387,13 +2386,13 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2419,10 +2418,10 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2451,10 +2450,10 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -2483,10 +2482,10 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
@@ -2502,7 +2501,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2540,7 +2539,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2579,7 +2578,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -2666,7 +2665,7 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2705,10 +2704,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -2727,7 +2726,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2758,16 +2757,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2778,7 +2777,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2790,16 +2789,16 @@
         <v>2001</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2810,7 +2809,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2822,16 +2821,16 @@
         <v>2001</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2839,10 +2838,10 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2854,16 +2853,16 @@
         <v>2001</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2874,7 +2873,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2886,16 +2885,16 @@
         <v>2001</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2906,7 +2905,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2918,16 +2917,16 @@
         <v>2001</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2935,31 +2934,31 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2970,28 +2969,28 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3002,7 +3001,7 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3014,13 +3013,13 @@
         <v>2001</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -3034,7 +3033,7 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -3046,13 +3045,13 @@
         <v>2001</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
@@ -3066,7 +3065,7 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -3078,13 +3077,13 @@
         <v>2001</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
@@ -3098,7 +3097,7 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -3110,16 +3109,16 @@
         <v>2001</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3130,7 +3129,7 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -3142,16 +3141,16 @@
         <v>2001</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -3162,28 +3161,28 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>2001</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -3194,7 +3193,7 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -3206,16 +3205,16 @@
         <v>2001</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3226,7 +3225,7 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -3238,16 +3237,16 @@
         <v>2001</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3255,10 +3254,10 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -3270,16 +3269,16 @@
         <v>2001</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3290,7 +3289,7 @@
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -3302,16 +3301,16 @@
         <v>2001</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3322,7 +3321,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -3334,16 +3333,16 @@
         <v>2001</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3354,7 +3353,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -3366,16 +3365,16 @@
         <v>2001</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3383,63 +3382,63 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21">
         <v>2001</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22">
         <v>2001</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3452,7 +3451,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3473,10 +3472,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3487,10 +3486,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -3501,10 +3500,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3515,10 +3514,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3529,10 +3528,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3543,10 +3542,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3565,7 +3564,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3602,16 +3601,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3619,74 +3618,74 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3698,27 +3697,27 @@
         <v>2002</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3730,27 +3729,27 @@
         <v>2002</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3762,27 +3761,27 @@
         <v>2002</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3794,27 +3793,27 @@
         <v>2002</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -3826,16 +3825,16 @@
         <v>2002</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3843,63 +3842,63 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>2002</v>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" t="s">
         <v>160</v>
-      </c>
-      <c r="I9" t="s">
-        <v>161</v>
-      </c>
-      <c r="J9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
         <v>82</v>
       </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>2002</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" t="s">
         <v>160</v>
-      </c>
-      <c r="I10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3934,10 +3933,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3948,10 +3947,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -3962,10 +3961,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -3976,10 +3975,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -3990,10 +3989,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4004,10 +4003,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -4018,10 +4017,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -4077,283 +4076,283 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>2003</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
         <v>89</v>
       </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
         <v>93</v>
       </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>2003</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>2003</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>2003</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -4365,48 +4364,48 @@
         <v>2003</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>2003</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4419,7 +4418,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4440,10 +4439,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -4454,10 +4453,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4468,10 +4467,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4482,10 +4481,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -4496,10 +4495,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4510,10 +4509,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -4524,10 +4523,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4538,10 +4537,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -4552,10 +4551,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -4566,10 +4565,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -4580,10 +4579,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4594,10 +4593,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s">
         <v>125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>127</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -4608,10 +4607,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -4622,7 +4621,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -4636,10 +4635,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>19</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72DE6DE6-06C7-4E05-B70B-85AFE4E9B760}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8A36EA-61BC-4010-B5DD-5A1999633073}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="2" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="8" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="183">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Boyero, L</t>
-  </si>
-  <si>
-    <t>LB</t>
   </si>
   <si>
     <t>Bailey, RC</t>
@@ -624,12 +621,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -644,9 +647,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,7 +1060,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,88 +1092,88 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>182</v>
+      <c r="B2" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
         <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1183,24 +1188,24 @@
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
         <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1215,59 +1220,59 @@
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
         <v>106</v>
       </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1279,27 +1284,27 @@
         <v>2004</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1311,27 +1316,27 @@
         <v>2004</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1343,27 +1348,27 @@
         <v>2004</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
         <v>110</v>
       </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1375,27 +1380,27 @@
         <v>2004</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
         <v>112</v>
       </c>
-      <c r="B11" t="s">
-        <v>113</v>
-      </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1407,10 +1412,10 @@
         <v>2004</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
@@ -1421,13 +1426,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
         <v>114</v>
       </c>
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1439,10 +1444,10 @@
         <v>2004</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
@@ -1453,322 +1458,322 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
         <v>116</v>
       </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" t="s">
         <v>152</v>
       </c>
-      <c r="I13" t="s">
-        <v>153</v>
-      </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
         <v>118</v>
       </c>
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" t="s">
         <v>152</v>
       </c>
-      <c r="I14" t="s">
-        <v>153</v>
-      </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15">
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" t="s">
         <v>152</v>
       </c>
-      <c r="I15" t="s">
-        <v>153</v>
-      </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" t="s">
         <v>152</v>
       </c>
-      <c r="I16" t="s">
-        <v>153</v>
-      </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
         <v>121</v>
       </c>
-      <c r="B17" t="s">
-        <v>122</v>
-      </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17">
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" t="s">
         <v>152</v>
       </c>
-      <c r="I17" t="s">
-        <v>153</v>
-      </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18">
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" t="s">
         <v>165</v>
       </c>
-      <c r="I18" t="s">
-        <v>166</v>
-      </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
         <v>124</v>
       </c>
-      <c r="B19" t="s">
-        <v>125</v>
-      </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19">
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" t="s">
         <v>165</v>
       </c>
-      <c r="I19" t="s">
-        <v>166</v>
-      </c>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
         <v>126</v>
       </c>
-      <c r="B20" t="s">
-        <v>127</v>
-      </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20">
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" t="s">
         <v>165</v>
       </c>
-      <c r="I20" t="s">
-        <v>166</v>
-      </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
-        <v>182</v>
+      <c r="B21" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21">
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22">
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1802,10 +1807,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1816,10 +1821,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1830,10 +1835,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1844,10 +1849,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1858,10 +1863,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1912,27 +1917,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" t="s">
-        <v>131</v>
-      </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1944,13 +1949,13 @@
         <v>2005</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -1958,13 +1963,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1976,13 +1981,13 @@
         <v>2005</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -1990,10 +1995,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
         <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2008,13 +2013,13 @@
         <v>2005</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" t="s">
         <v>169</v>
-      </c>
-      <c r="I4" t="s">
-        <v>170</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -2022,13 +2027,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
         <v>136</v>
       </c>
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2040,13 +2045,13 @@
         <v>2005</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" t="s">
         <v>169</v>
-      </c>
-      <c r="I5" t="s">
-        <v>170</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -2054,31 +2059,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
         <v>138</v>
       </c>
-      <c r="B6" t="s">
-        <v>139</v>
-      </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>2005</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" t="s">
         <v>169</v>
-      </c>
-      <c r="I6" t="s">
-        <v>170</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2086,13 +2091,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
         <v>114</v>
       </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2104,27 +2109,27 @@
         <v>2005</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
         <v>140</v>
       </c>
-      <c r="B8" t="s">
-        <v>141</v>
-      </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -2136,27 +2141,27 @@
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
         <v>140</v>
       </c>
-      <c r="B9" t="s">
-        <v>141</v>
-      </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -2168,13 +2173,13 @@
         <v>2005</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -2182,13 +2187,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
         <v>114</v>
       </c>
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2200,13 +2205,13 @@
         <v>2005</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
@@ -2255,16 +2260,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>145</v>
-      </c>
-      <c r="J1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2290,13 +2295,13 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2322,13 +2327,13 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2354,13 +2359,13 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2386,13 +2391,13 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2418,10 +2423,10 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" t="s">
         <v>148</v>
-      </c>
-      <c r="I6" t="s">
-        <v>149</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2450,10 +2455,10 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" t="s">
         <v>148</v>
-      </c>
-      <c r="I7" t="s">
-        <v>149</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -2482,10 +2487,10 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" t="s">
         <v>148</v>
-      </c>
-      <c r="I8" t="s">
-        <v>149</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
@@ -2500,7 +2505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4F261F-5EF4-48DE-9CDF-B5EA487C153B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2539,7 +2544,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2578,10 +2583,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2592,10 +2597,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2606,10 +2611,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2620,10 +2625,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2634,10 +2639,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2648,10 +2653,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2662,10 +2667,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2676,10 +2681,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -2690,10 +2695,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -2704,10 +2709,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -2757,16 +2762,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2777,7 +2782,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2789,16 +2794,16 @@
         <v>2001</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2809,7 +2814,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2821,16 +2826,16 @@
         <v>2001</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2838,10 +2843,10 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2853,16 +2858,16 @@
         <v>2001</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2873,7 +2878,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2885,16 +2890,16 @@
         <v>2001</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2905,7 +2910,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2917,16 +2922,16 @@
         <v>2001</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2934,74 +2939,74 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3013,13 +3018,13 @@
         <v>2001</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -3027,13 +3032,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -3045,13 +3050,13 @@
         <v>2001</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
@@ -3059,13 +3064,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -3077,13 +3082,13 @@
         <v>2001</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
@@ -3091,13 +3096,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -3109,27 +3114,27 @@
         <v>2001</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" t="s">
         <v>152</v>
       </c>
-      <c r="I12" t="s">
-        <v>153</v>
-      </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -3141,59 +3146,59 @@
         <v>2001</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" t="s">
         <v>152</v>
       </c>
-      <c r="I13" t="s">
-        <v>153</v>
-      </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14">
         <v>2001</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -3205,27 +3210,27 @@
         <v>2001</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -3237,27 +3242,27 @@
         <v>2001</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -3269,27 +3274,27 @@
         <v>2001</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -3301,27 +3306,27 @@
         <v>2001</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -3333,27 +3338,27 @@
         <v>2001</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -3365,80 +3370,80 @@
         <v>2001</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21">
         <v>2001</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" t="s">
         <v>152</v>
       </c>
-      <c r="I21" t="s">
-        <v>153</v>
-      </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22">
         <v>2001</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22" t="s">
         <v>152</v>
       </c>
-      <c r="I22" t="s">
-        <v>153</v>
-      </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3472,10 +3477,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3486,10 +3491,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -3500,10 +3505,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3514,10 +3519,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3528,10 +3533,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3542,10 +3547,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3601,16 +3606,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3618,74 +3623,74 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" t="s">
         <v>156</v>
       </c>
-      <c r="I2" t="s">
-        <v>157</v>
-      </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" t="s">
         <v>156</v>
       </c>
-      <c r="I3" t="s">
-        <v>157</v>
-      </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3697,27 +3702,27 @@
         <v>2002</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3729,27 +3734,27 @@
         <v>2002</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3761,27 +3766,27 @@
         <v>2002</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3793,27 +3798,27 @@
         <v>2002</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -3825,16 +3830,16 @@
         <v>2002</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3842,63 +3847,63 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>2002</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" t="s">
         <v>158</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>159</v>
-      </c>
-      <c r="J9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
         <v>81</v>
       </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10">
         <v>2002</v>
       </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" t="s">
         <v>158</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>159</v>
-      </c>
-      <c r="J10" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3933,10 +3938,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3947,10 +3952,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -3961,10 +3966,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -3975,10 +3980,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -3989,10 +3994,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4003,10 +4008,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -4017,10 +4022,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -4076,283 +4081,283 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>2003</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" t="s">
         <v>156</v>
       </c>
-      <c r="I4" t="s">
-        <v>157</v>
-      </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
         <v>88</v>
       </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" t="s">
         <v>156</v>
       </c>
-      <c r="I5" t="s">
-        <v>157</v>
-      </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" t="s">
         <v>156</v>
       </c>
-      <c r="I6" t="s">
-        <v>157</v>
-      </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
         <v>92</v>
       </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>2003</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>2003</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>2003</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
         <v>98</v>
       </c>
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -4364,48 +4369,48 @@
         <v>2003</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11">
         <v>2003</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4415,13 +4420,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19502793-9484-45E0-B1BF-554E27631AC2}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="7" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4439,10 +4447,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -4453,10 +4461,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4467,10 +4475,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4481,10 +4489,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -4495,10 +4503,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4509,10 +4517,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -4523,10 +4531,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4537,10 +4545,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -4551,10 +4559,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -4565,10 +4573,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -4579,10 +4587,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4593,10 +4601,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -4607,10 +4615,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -4624,26 +4632,12 @@
         <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16">
-        <v>19</v>
-      </c>
-      <c r="D16">
         <v>2004</v>
       </c>
     </row>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8A36EA-61BC-4010-B5DD-5A1999633073}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEB07F9B-AE73-4284-85EA-21DBAABB7816}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="8" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>Cressa, C</t>
   </si>
   <si>
-    <t>CCR</t>
-  </si>
-  <si>
     <t>Rincon, J</t>
   </si>
   <si>
@@ -598,6 +595,9 @@
   </si>
   <si>
     <t>ALORAM</t>
+  </si>
+  <si>
+    <t>CLACRE</t>
   </si>
 </sst>
 </file>
@@ -647,11 +647,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C46BBE5-340B-43C0-BB2F-9CA2B267DE48}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,10 +1009,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1024,10 +1023,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1038,7 +1037,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1092,88 +1091,88 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
         <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1188,24 +1187,24 @@
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
         <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1220,59 +1219,59 @@
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
-        <v>106</v>
-      </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1284,27 +1283,27 @@
         <v>2004</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1316,27 +1315,27 @@
         <v>2004</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1348,27 +1347,27 @@
         <v>2004</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
         <v>109</v>
       </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1380,27 +1379,27 @@
         <v>2004</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
         <v>111</v>
       </c>
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1412,10 +1411,10 @@
         <v>2004</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
@@ -1426,13 +1425,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
         <v>113</v>
       </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1444,10 +1443,10 @@
         <v>2004</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
@@ -1458,322 +1457,322 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
         <v>115</v>
       </c>
-      <c r="B13" t="s">
-        <v>116</v>
-      </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13">
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" t="s">
         <v>151</v>
       </c>
-      <c r="I13" t="s">
-        <v>152</v>
-      </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
         <v>117</v>
       </c>
-      <c r="B14" t="s">
-        <v>118</v>
-      </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14">
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" t="s">
         <v>151</v>
       </c>
-      <c r="I14" t="s">
-        <v>152</v>
-      </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15">
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" t="s">
         <v>151</v>
       </c>
-      <c r="I15" t="s">
-        <v>152</v>
-      </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16">
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" t="s">
         <v>151</v>
       </c>
-      <c r="I16" t="s">
-        <v>152</v>
-      </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
         <v>120</v>
       </c>
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17">
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" t="s">
         <v>151</v>
       </c>
-      <c r="I17" t="s">
-        <v>152</v>
-      </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" t="s">
         <v>164</v>
       </c>
-      <c r="I18" t="s">
-        <v>165</v>
-      </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
         <v>123</v>
       </c>
-      <c r="B19" t="s">
-        <v>124</v>
-      </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" t="s">
         <v>164</v>
       </c>
-      <c r="I19" t="s">
-        <v>165</v>
-      </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
         <v>125</v>
       </c>
-      <c r="B20" t="s">
-        <v>126</v>
-      </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" t="s">
         <v>164</v>
       </c>
-      <c r="I20" t="s">
-        <v>165</v>
-      </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22">
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1807,10 +1806,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1821,10 +1820,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1835,10 +1834,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1849,10 +1848,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1863,10 +1862,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1917,27 +1916,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1949,13 +1948,13 @@
         <v>2005</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -1963,13 +1962,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
         <v>131</v>
       </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1981,13 +1980,13 @@
         <v>2005</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -1995,10 +1994,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" t="s">
         <v>133</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2013,13 +2012,13 @@
         <v>2005</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" t="s">
         <v>168</v>
-      </c>
-      <c r="I4" t="s">
-        <v>169</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -2027,13 +2026,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
         <v>135</v>
       </c>
-      <c r="B5" t="s">
-        <v>136</v>
-      </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2045,13 +2044,13 @@
         <v>2005</v>
       </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" t="s">
         <v>168</v>
-      </c>
-      <c r="I5" t="s">
-        <v>169</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -2059,31 +2058,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
         <v>137</v>
       </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>2005</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" t="s">
         <v>168</v>
-      </c>
-      <c r="I6" t="s">
-        <v>169</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2091,13 +2090,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
         <v>113</v>
       </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2109,27 +2108,27 @@
         <v>2005</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
         <v>139</v>
       </c>
-      <c r="B8" t="s">
-        <v>140</v>
-      </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -2141,27 +2140,27 @@
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
         <v>139</v>
       </c>
-      <c r="B9" t="s">
-        <v>140</v>
-      </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -2173,13 +2172,13 @@
         <v>2005</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -2187,13 +2186,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
         <v>113</v>
       </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2205,13 +2204,13 @@
         <v>2005</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
@@ -2227,7 +2226,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2260,16 +2259,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>144</v>
-      </c>
-      <c r="J1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2295,13 +2294,13 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2327,13 +2326,13 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2341,7 +2340,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2359,21 +2358,21 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2391,21 +2390,21 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2423,10 +2422,10 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" t="s">
         <v>147</v>
-      </c>
-      <c r="I6" t="s">
-        <v>148</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2434,10 +2433,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -2455,10 +2454,10 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" t="s">
         <v>147</v>
-      </c>
-      <c r="I7" t="s">
-        <v>148</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -2466,7 +2465,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -2487,10 +2486,10 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" t="s">
         <v>147</v>
-      </c>
-      <c r="I8" t="s">
-        <v>148</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
@@ -2527,10 +2526,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2541,10 +2540,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2555,10 +2554,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2569,10 +2568,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2583,10 +2582,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2597,10 +2596,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2611,10 +2610,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2625,10 +2624,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2639,10 +2638,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2653,10 +2652,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2667,10 +2666,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2681,10 +2680,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -2695,10 +2694,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -2709,10 +2708,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -2762,27 +2761,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2794,27 +2793,27 @@
         <v>2001</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2826,27 +2825,27 @@
         <v>2001</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2858,27 +2857,27 @@
         <v>2001</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2890,27 +2889,27 @@
         <v>2001</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2922,91 +2921,91 @@
         <v>2001</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3018,13 +3017,13 @@
         <v>2001</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -3032,13 +3031,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -3050,13 +3049,13 @@
         <v>2001</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
@@ -3064,13 +3063,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -3082,13 +3081,13 @@
         <v>2001</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
@@ -3096,13 +3095,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -3114,27 +3113,27 @@
         <v>2001</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" t="s">
         <v>151</v>
       </c>
-      <c r="I12" t="s">
-        <v>152</v>
-      </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -3146,59 +3145,59 @@
         <v>2001</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" t="s">
         <v>151</v>
       </c>
-      <c r="I13" t="s">
-        <v>152</v>
-      </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>2001</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -3210,27 +3209,27 @@
         <v>2001</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -3242,27 +3241,27 @@
         <v>2001</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -3274,27 +3273,27 @@
         <v>2001</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -3306,27 +3305,27 @@
         <v>2001</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -3338,27 +3337,27 @@
         <v>2001</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -3370,80 +3369,80 @@
         <v>2001</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21">
         <v>2001</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" t="s">
         <v>151</v>
       </c>
-      <c r="I21" t="s">
-        <v>152</v>
-      </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22">
         <v>2001</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" t="s">
         <v>151</v>
       </c>
-      <c r="I22" t="s">
-        <v>152</v>
-      </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3477,10 +3476,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3491,10 +3490,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -3505,10 +3504,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3519,10 +3518,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3533,10 +3532,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3547,10 +3546,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3606,91 +3605,91 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s">
         <v>155</v>
       </c>
-      <c r="I2" t="s">
-        <v>156</v>
-      </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" t="s">
         <v>155</v>
       </c>
-      <c r="I3" t="s">
-        <v>156</v>
-      </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3702,27 +3701,27 @@
         <v>2002</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3734,27 +3733,27 @@
         <v>2002</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3766,27 +3765,27 @@
         <v>2002</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3798,27 +3797,27 @@
         <v>2002</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -3830,80 +3829,80 @@
         <v>2002</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <v>2002</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" t="s">
         <v>157</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>158</v>
-      </c>
-      <c r="J9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10">
         <v>2002</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" t="s">
         <v>157</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>158</v>
-      </c>
-      <c r="J10" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3938,10 +3937,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3952,10 +3951,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -3966,10 +3965,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -3980,10 +3979,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -3994,10 +3993,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4008,10 +4007,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -4022,10 +4021,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -4081,283 +4080,283 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>2003</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
         <v>155</v>
       </c>
-      <c r="I4" t="s">
-        <v>156</v>
-      </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5">
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" t="s">
         <v>155</v>
       </c>
-      <c r="I5" t="s">
-        <v>156</v>
-      </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
         <v>89</v>
       </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" t="s">
         <v>155</v>
       </c>
-      <c r="I6" t="s">
-        <v>156</v>
-      </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
         <v>91</v>
       </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>2003</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
         <v>93</v>
       </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>2003</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
         <v>95</v>
       </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <v>2003</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -4369,48 +4368,48 @@
         <v>2003</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
         <v>99</v>
       </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>2003</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4420,16 +4419,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19502793-9484-45E0-B1BF-554E27631AC2}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="7" width="8.88671875" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4447,10 +4443,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -4461,10 +4457,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4475,10 +4471,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4489,10 +4485,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -4503,10 +4499,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4517,10 +4513,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -4531,10 +4527,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4545,10 +4541,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -4559,10 +4555,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -4573,10 +4569,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -4587,10 +4583,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4601,10 +4597,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -4615,10 +4611,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -4629,10 +4625,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>19</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEB07F9B-AE73-4284-85EA-21DBAABB7816}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C19E5170-2338-4464-A4B2-B720062D428B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="2" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Escobar, EG</t>
   </si>
   <si>
-    <t>EGE</t>
-  </si>
-  <si>
     <t>Lugo, A</t>
   </si>
   <si>
@@ -598,6 +595,9 @@
   </si>
   <si>
     <t>CLACRE</t>
+  </si>
+  <si>
+    <t>ELVESC</t>
   </si>
 </sst>
 </file>
@@ -967,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C46BBE5-340B-43C0-BB2F-9CA2B267DE48}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1012,7 +1012,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1091,88 +1091,88 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
         <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1187,24 +1187,24 @@
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
         <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1219,59 +1219,59 @@
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
         <v>104</v>
       </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1283,27 +1283,27 @@
         <v>2004</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1315,27 +1315,27 @@
         <v>2004</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1347,27 +1347,27 @@
         <v>2004</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
         <v>108</v>
       </c>
-      <c r="B10" t="s">
-        <v>109</v>
-      </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1379,27 +1379,27 @@
         <v>2004</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
         <v>110</v>
       </c>
-      <c r="B11" t="s">
-        <v>111</v>
-      </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1411,10 +1411,10 @@
         <v>2004</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
         <v>112</v>
       </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1443,10 +1443,10 @@
         <v>2004</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
@@ -1457,322 +1457,322 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
         <v>114</v>
       </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" t="s">
         <v>150</v>
       </c>
-      <c r="I13" t="s">
-        <v>151</v>
-      </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
         <v>116</v>
       </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" t="s">
         <v>150</v>
       </c>
-      <c r="I14" t="s">
-        <v>151</v>
-      </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15">
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" t="s">
         <v>150</v>
       </c>
-      <c r="I15" t="s">
-        <v>151</v>
-      </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" t="s">
         <v>150</v>
       </c>
-      <c r="I16" t="s">
-        <v>151</v>
-      </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
         <v>119</v>
       </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H17" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" t="s">
         <v>150</v>
       </c>
-      <c r="I17" t="s">
-        <v>151</v>
-      </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18">
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" t="s">
         <v>163</v>
       </c>
-      <c r="I18" t="s">
-        <v>164</v>
-      </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
         <v>122</v>
       </c>
-      <c r="B19" t="s">
-        <v>123</v>
-      </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19">
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" t="s">
         <v>163</v>
       </c>
-      <c r="I19" t="s">
-        <v>164</v>
-      </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
         <v>124</v>
       </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20">
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" t="s">
         <v>163</v>
       </c>
-      <c r="I20" t="s">
-        <v>164</v>
-      </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21">
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22">
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1916,27 +1916,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1948,13 +1948,13 @@
         <v>2005</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1980,13 +1980,13 @@
         <v>2005</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2012,13 +2012,13 @@
         <v>2005</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" t="s">
         <v>167</v>
-      </c>
-      <c r="I4" t="s">
-        <v>168</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -2026,13 +2026,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
         <v>134</v>
       </c>
-      <c r="B5" t="s">
-        <v>135</v>
-      </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2044,13 +2044,13 @@
         <v>2005</v>
       </c>
       <c r="G5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" t="s">
         <v>167</v>
-      </c>
-      <c r="I5" t="s">
-        <v>168</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -2058,31 +2058,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
         <v>136</v>
       </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>2005</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" t="s">
         <v>167</v>
-      </c>
-      <c r="I6" t="s">
-        <v>168</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2090,13 +2090,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
         <v>112</v>
       </c>
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2108,27 +2108,27 @@
         <v>2005</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
         <v>138</v>
       </c>
-      <c r="B8" t="s">
-        <v>139</v>
-      </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -2140,27 +2140,27 @@
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
         <v>138</v>
       </c>
-      <c r="B9" t="s">
-        <v>139</v>
-      </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -2172,13 +2172,13 @@
         <v>2005</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
         <v>112</v>
       </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2204,13 +2204,13 @@
         <v>2005</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
@@ -2259,16 +2259,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>143</v>
-      </c>
-      <c r="J1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2294,13 +2294,13 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2326,13 +2326,13 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2340,7 +2340,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2358,13 +2358,13 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2390,13 +2390,13 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2422,10 +2422,10 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" t="s">
         <v>146</v>
-      </c>
-      <c r="I6" t="s">
-        <v>147</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -2454,10 +2454,10 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" t="s">
         <v>146</v>
-      </c>
-      <c r="I7" t="s">
-        <v>147</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -2486,10 +2486,10 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" t="s">
         <v>146</v>
-      </c>
-      <c r="I8" t="s">
-        <v>147</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
@@ -2504,8 +2504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4F261F-5EF4-48DE-9CDF-B5EA487C153B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2529,7 +2529,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2543,7 +2543,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2557,7 +2557,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2571,7 +2571,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2638,10 +2638,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2680,10 +2680,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -2694,10 +2694,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -2730,7 +2730,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2761,16 +2761,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2781,7 +2781,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2793,16 +2793,16 @@
         <v>2001</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2810,10 +2810,10 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2825,27 +2825,27 @@
         <v>2001</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2857,27 +2857,27 @@
         <v>2001</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2889,27 +2889,27 @@
         <v>2001</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2921,91 +2921,91 @@
         <v>2001</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3017,13 +3017,13 @@
         <v>2001</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -3031,13 +3031,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -3049,13 +3049,13 @@
         <v>2001</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
@@ -3063,13 +3063,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -3081,13 +3081,13 @@
         <v>2001</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
@@ -3095,13 +3095,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -3113,27 +3113,27 @@
         <v>2001</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" t="s">
         <v>150</v>
       </c>
-      <c r="I12" t="s">
-        <v>151</v>
-      </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -3145,59 +3145,59 @@
         <v>2001</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" t="s">
         <v>150</v>
       </c>
-      <c r="I13" t="s">
-        <v>151</v>
-      </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14">
         <v>2001</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -3209,27 +3209,27 @@
         <v>2001</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -3241,27 +3241,27 @@
         <v>2001</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -3273,27 +3273,27 @@
         <v>2001</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -3305,27 +3305,27 @@
         <v>2001</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -3337,27 +3337,27 @@
         <v>2001</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -3369,80 +3369,80 @@
         <v>2001</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>2001</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" t="s">
         <v>150</v>
       </c>
-      <c r="I21" t="s">
-        <v>151</v>
-      </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22">
         <v>2001</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" t="s">
         <v>150</v>
       </c>
-      <c r="I22" t="s">
-        <v>151</v>
-      </c>
       <c r="J22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -3504,10 +3504,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3518,10 +3518,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3532,10 +3532,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3546,10 +3546,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3605,91 +3605,91 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
         <v>154</v>
       </c>
-      <c r="I2" t="s">
-        <v>155</v>
-      </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
         <v>154</v>
       </c>
-      <c r="I3" t="s">
-        <v>155</v>
-      </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3701,27 +3701,27 @@
         <v>2002</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3733,27 +3733,27 @@
         <v>2002</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3765,27 +3765,27 @@
         <v>2002</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3797,27 +3797,27 @@
         <v>2002</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -3829,80 +3829,80 @@
         <v>2002</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9">
         <v>2002</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" t="s">
         <v>156</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>157</v>
-      </c>
-      <c r="J9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10">
         <v>2002</v>
       </c>
       <c r="G10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" t="s">
         <v>156</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>157</v>
-      </c>
-      <c r="J10" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3937,10 +3937,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3951,10 +3951,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -3965,10 +3965,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -3979,10 +3979,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -3993,10 +3993,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4007,10 +4007,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -4021,10 +4021,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -4080,283 +4080,283 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>2003</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" t="s">
         <v>154</v>
       </c>
-      <c r="I4" t="s">
-        <v>155</v>
-      </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
         <v>86</v>
       </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" t="s">
         <v>154</v>
       </c>
-      <c r="I5" t="s">
-        <v>155</v>
-      </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
         <v>88</v>
       </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" t="s">
         <v>154</v>
       </c>
-      <c r="I6" t="s">
-        <v>155</v>
-      </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>2003</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8">
         <v>2003</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
         <v>94</v>
       </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9">
         <v>2003</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
         <v>96</v>
       </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -4368,48 +4368,48 @@
         <v>2003</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11">
         <v>2003</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4443,10 +4443,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -4457,10 +4457,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4471,10 +4471,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4485,10 +4485,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -4499,10 +4499,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4513,10 +4513,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -4527,10 +4527,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4541,10 +4541,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -4555,10 +4555,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -4569,10 +4569,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -4583,10 +4583,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4597,10 +4597,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -4611,10 +4611,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -4625,10 +4625,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>19</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C19E5170-2338-4464-A4B2-B720062D428B}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA273B2-8A9C-46B8-A2C8-7639D7E7D99F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="2" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="8" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="182">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -63,9 +63,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>MLM</t>
-  </si>
-  <si>
     <t>JJR</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Marin, R</t>
   </si>
   <si>
-    <t>RM</t>
-  </si>
-  <si>
     <t>Ramirez, A</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>MPSL</t>
   </si>
   <si>
-    <t>JLNS</t>
-  </si>
-  <si>
     <t>LFMD</t>
   </si>
   <si>
@@ -357,9 +348,6 @@
     <t>Marchese, M</t>
   </si>
   <si>
-    <t>MRM</t>
-  </si>
-  <si>
     <t>Wantzen, KM</t>
   </si>
   <si>
@@ -369,9 +357,6 @@
     <t>DRFB</t>
   </si>
   <si>
-    <t>JLN</t>
-  </si>
-  <si>
     <t>Egler, M</t>
   </si>
   <si>
@@ -598,6 +583,18 @@
   </si>
   <si>
     <t>ELVESC</t>
+  </si>
+  <si>
+    <t>MERMAR</t>
+  </si>
+  <si>
+    <t>RUBMAR</t>
+  </si>
+  <si>
+    <t>MARLMIS</t>
+  </si>
+  <si>
+    <t>JORLNEM</t>
   </si>
 </sst>
 </file>
@@ -621,18 +618,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -647,10 +638,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,7 +947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -968,18 +958,18 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,12 +983,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1007,12 +997,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1021,12 +1011,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1035,12 +1025,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -1059,720 +1049,720 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>2004</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>2004</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>2004</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>2004</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>2004</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>2004</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F13">
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14">
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15">
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F17">
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F18">
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
         <v>121</v>
-      </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>126</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F20">
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>179</v>
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F21">
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F22">
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1788,9 +1778,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1804,12 +1794,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1818,12 +1808,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1832,12 +1822,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1846,12 +1836,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1860,12 +1850,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1887,333 +1877,333 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>2005</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>2005</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>2005</v>
       </c>
       <c r="G4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>2005</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>2005</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>2005</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>2005</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>2005</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2226,273 +2216,273 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>2000</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>2000</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>2000</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>2000</v>
       </c>
       <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>2000</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>2000</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>2000</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2504,13 +2494,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4F261F-5EF4-48DE-9CDF-B5EA487C153B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2524,12 +2514,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2538,12 +2528,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2552,12 +2542,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2566,12 +2556,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2580,12 +2570,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2594,12 +2584,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2608,12 +2598,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2622,12 +2612,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2636,12 +2626,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2650,12 +2640,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2664,12 +2654,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2678,12 +2668,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -2692,12 +2682,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -2706,12 +2696,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -2730,719 +2720,719 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>2001</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>2001</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>2001</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>2001</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>2001</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>2001</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>2001</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>2001</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>2001</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>2001</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>2001</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>2001</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>2001</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>2001</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>2001</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>2001</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
         <v>64</v>
       </c>
-      <c r="J19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>2001</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" t="s">
         <v>64</v>
       </c>
-      <c r="J20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F21">
         <v>2001</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F22">
         <v>2001</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3455,12 +3445,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3474,12 +3467,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3488,12 +3481,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -3502,12 +3495,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3516,12 +3509,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3530,12 +3523,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3544,12 +3537,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3568,341 +3561,341 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>2002</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>2002</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>2002</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>2002</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>2002</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>2002</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F10">
         <v>2002</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3919,9 +3912,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3935,12 +3928,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3949,12 +3942,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -3963,12 +3956,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -3977,12 +3970,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -3991,12 +3984,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4005,12 +3998,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -4019,12 +4012,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -4046,370 +4039,370 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>2003</v>
       </c>
       <c r="G2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
         <v>171</v>
       </c>
-      <c r="H2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>176</v>
-      </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>2003</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>2003</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>2003</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>2003</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>2003</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4421,13 +4414,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19502793-9484-45E0-B1BF-554E27631AC2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4441,12 +4434,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -4455,12 +4448,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4469,12 +4462,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
         <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4483,12 +4476,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -4497,12 +4490,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4511,12 +4504,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -4525,12 +4518,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4539,12 +4532,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -4553,12 +4546,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -4567,12 +4560,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -4581,12 +4574,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
         <v>114</v>
-      </c>
-      <c r="B12" t="s">
-        <v>119</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4595,12 +4588,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -4609,12 +4602,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -4623,12 +4616,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>19</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA273B2-8A9C-46B8-A2C8-7639D7E7D99F}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2150A36-6A53-4ED6-A6E5-417E46312917}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="8" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="1" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -105,15 +105,9 @@
     <t>Rincon, J</t>
   </si>
   <si>
-    <t>JRN</t>
-  </si>
-  <si>
     <t>Roldan, G</t>
   </si>
   <si>
-    <t>GRL</t>
-  </si>
-  <si>
     <t>Posada, JA</t>
   </si>
   <si>
@@ -595,6 +589,12 @@
   </si>
   <si>
     <t>JORLNEM</t>
+  </si>
+  <si>
+    <t>JOSERIN</t>
+  </si>
+  <si>
+    <t>GABROLD</t>
   </si>
 </sst>
 </file>
@@ -947,7 +947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -958,18 +958,18 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="29.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,9 +983,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -997,12 +997,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1011,12 +1011,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1025,9 +1025,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1052,16 +1052,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,88 +1081,88 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1177,24 +1177,24 @@
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1209,59 +1209,59 @@
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1273,27 +1273,27 @@
         <v>2004</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1305,27 +1305,27 @@
         <v>2004</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1337,27 +1337,27 @@
         <v>2004</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1369,27 +1369,27 @@
         <v>2004</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1401,10 +1401,10 @@
         <v>2004</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
         <v>7</v>
@@ -1413,15 +1413,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1433,10 +1433,10 @@
         <v>2004</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I12" t="s">
         <v>7</v>
@@ -1445,324 +1445,324 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15">
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16">
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17">
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F18">
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19">
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
         <v>119</v>
-      </c>
-      <c r="C20" t="s">
-        <v>121</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F20">
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21">
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22">
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1778,9 +1778,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1794,12 +1794,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>125</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1808,12 +1808,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1822,12 +1822,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1836,12 +1836,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1850,12 +1850,12 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1877,16 +1877,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1906,27 +1906,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1938,27 +1938,27 @@
         <v>2005</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1970,24 +1970,24 @@
         <v>2005</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2002,27 +2002,27 @@
         <v>2005</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2034,59 +2034,59 @@
         <v>2005</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>2005</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2098,27 +2098,27 @@
         <v>2005</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -2130,27 +2130,27 @@
         <v>2005</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -2162,27 +2162,27 @@
         <v>2005</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2194,13 +2194,13 @@
         <v>2005</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
         <v>6</v>
@@ -2215,21 +2215,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E84D51-3BFE-4638-9DD0-BF61EDA22FCF}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2249,19 +2249,19 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2284,21 +2284,21 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2316,21 +2316,21 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2348,21 +2348,21 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2380,21 +2380,21 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2412,21 +2412,21 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2444,18 +2444,18 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2476,10 +2476,10 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
@@ -2498,9 +2498,9 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2514,12 +2514,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2528,12 +2528,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2542,12 +2542,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2556,12 +2556,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2570,12 +2570,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2584,12 +2584,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2598,12 +2598,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2612,12 +2612,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2626,12 +2626,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2640,12 +2640,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2654,12 +2654,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2668,12 +2668,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -2682,12 +2682,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -2696,12 +2696,12 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -2723,15 +2723,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2751,27 +2751,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2783,27 +2783,27 @@
         <v>2001</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2815,27 +2815,27 @@
         <v>2001</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2847,27 +2847,27 @@
         <v>2001</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2879,27 +2879,27 @@
         <v>2001</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2911,91 +2911,91 @@
         <v>2001</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -3007,27 +3007,27 @@
         <v>2001</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -3039,27 +3039,27 @@
         <v>2001</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -3071,27 +3071,27 @@
         <v>2001</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -3103,27 +3103,27 @@
         <v>2001</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -3135,59 +3135,59 @@
         <v>2001</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14">
         <v>2001</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -3199,27 +3199,27 @@
         <v>2001</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -3231,27 +3231,27 @@
         <v>2001</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -3263,27 +3263,27 @@
         <v>2001</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -3295,27 +3295,27 @@
         <v>2001</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -3327,27 +3327,27 @@
         <v>2001</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" t="s">
         <v>62</v>
       </c>
-      <c r="J19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -3359,80 +3359,80 @@
         <v>2001</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
         <v>62</v>
       </c>
-      <c r="J20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F21">
         <v>2001</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>2001</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3448,12 +3448,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3467,12 +3467,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3481,12 +3481,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -3495,12 +3495,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3509,12 +3509,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3523,12 +3523,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3537,12 +3537,12 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3564,21 +3564,21 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3598,91 +3598,91 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3694,27 +3694,27 @@
         <v>2002</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3726,27 +3726,27 @@
         <v>2002</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3758,27 +3758,27 @@
         <v>2002</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3790,27 +3790,27 @@
         <v>2002</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -3822,80 +3822,80 @@
         <v>2002</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9">
         <v>2002</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" t="s">
         <v>150</v>
       </c>
-      <c r="I9" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10">
         <v>2002</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" t="s">
         <v>150</v>
-      </c>
-      <c r="I10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3912,9 +3912,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3928,12 +3928,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3942,12 +3942,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -3956,12 +3956,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -3970,12 +3970,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -3984,12 +3984,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -3998,12 +3998,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -4012,12 +4012,12 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -4039,21 +4039,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4073,283 +4073,283 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <v>2003</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>2003</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>2003</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9">
         <v>2003</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -4361,48 +4361,48 @@
         <v>2003</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11">
         <v>2003</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4414,13 +4414,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19502793-9484-45E0-B1BF-554E27631AC2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4434,12 +4434,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -4448,12 +4448,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4462,12 +4462,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4476,12 +4476,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -4490,12 +4490,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4504,12 +4504,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -4518,12 +4518,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
         <v>105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4532,12 +4532,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
         <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -4546,12 +4546,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -4560,12 +4560,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -4574,12 +4574,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4588,12 +4588,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -4602,12 +4602,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -4616,12 +4616,12 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>19</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2150A36-6A53-4ED6-A6E5-417E46312917}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6728CCD1-DD0D-4096-B8B5-855223EFAFDA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="1" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="10" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -414,9 +414,6 @@
     <t>Siqueira, T</t>
   </si>
   <si>
-    <t>TDS</t>
-  </si>
-  <si>
     <t>Trivinho-Strixino, S</t>
   </si>
   <si>
@@ -595,6 +592,9 @@
   </si>
   <si>
     <t>GABROLD</t>
+  </si>
+  <si>
+    <t>TADSIQUE</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1016,7 +1016,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1081,16 +1081,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1098,7 +1098,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -1113,13 +1113,13 @@
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -1145,13 +1145,13 @@
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
@@ -1177,13 +1177,13 @@
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
@@ -1194,7 +1194,7 @@
         <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1209,13 +1209,13 @@
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
@@ -1241,13 +1241,13 @@
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
         <v>61</v>
@@ -1258,7 +1258,7 @@
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -1276,10 +1276,10 @@
         <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -1308,10 +1308,10 @@
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
         <v>61</v>
@@ -1322,7 +1322,7 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
@@ -1340,10 +1340,10 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
@@ -1372,10 +1372,10 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
         <v>61</v>
@@ -1404,7 +1404,7 @@
         <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
         <v>7</v>
@@ -1436,7 +1436,7 @@
         <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" t="s">
         <v>7</v>
@@ -1465,13 +1465,13 @@
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" t="s">
         <v>142</v>
-      </c>
-      <c r="I13" t="s">
-        <v>143</v>
       </c>
       <c r="J13" t="s">
         <v>61</v>
@@ -1497,13 +1497,13 @@
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" t="s">
         <v>142</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14" t="s">
         <v>61</v>
@@ -1529,13 +1529,13 @@
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" t="s">
         <v>142</v>
-      </c>
-      <c r="I15" t="s">
-        <v>143</v>
       </c>
       <c r="J15" t="s">
         <v>61</v>
@@ -1561,13 +1561,13 @@
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" t="s">
         <v>142</v>
-      </c>
-      <c r="I16" t="s">
-        <v>143</v>
       </c>
       <c r="J16" t="s">
         <v>61</v>
@@ -1593,13 +1593,13 @@
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H17" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" t="s">
         <v>142</v>
-      </c>
-      <c r="I17" t="s">
-        <v>143</v>
       </c>
       <c r="J17" t="s">
         <v>61</v>
@@ -1610,7 +1610,7 @@
         <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
         <v>119</v>
@@ -1625,13 +1625,13 @@
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" t="s">
         <v>155</v>
-      </c>
-      <c r="I18" t="s">
-        <v>156</v>
       </c>
       <c r="J18" t="s">
         <v>62</v>
@@ -1657,13 +1657,13 @@
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" t="s">
         <v>155</v>
-      </c>
-      <c r="I19" t="s">
-        <v>156</v>
       </c>
       <c r="J19" t="s">
         <v>62</v>
@@ -1689,13 +1689,13 @@
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" t="s">
         <v>155</v>
-      </c>
-      <c r="I20" t="s">
-        <v>156</v>
       </c>
       <c r="J20" t="s">
         <v>62</v>
@@ -1706,7 +1706,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -1721,13 +1721,13 @@
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J21" t="s">
         <v>61</v>
@@ -1753,13 +1753,13 @@
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J22" t="s">
         <v>61</v>
@@ -1774,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681D8C3-E4FC-4838-B1C5-BCB9920567F9}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1841,7 +1841,7 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
         <v>105</v>
@@ -1874,7 +1874,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1906,16 +1906,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1923,7 +1923,7 @@
         <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -1941,7 +1941,7 @@
         <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
         <v>57</v>
@@ -1952,10 +1952,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1973,7 +1973,7 @@
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
         <v>124</v>
-      </c>
-      <c r="B4" t="s">
-        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2002,13 +2002,13 @@
         <v>2005</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" t="s">
         <v>159</v>
-      </c>
-      <c r="I4" t="s">
-        <v>160</v>
       </c>
       <c r="J4" t="s">
         <v>6</v>
@@ -2016,10 +2016,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
         <v>126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
@@ -2034,13 +2034,13 @@
         <v>2005</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" t="s">
         <v>159</v>
-      </c>
-      <c r="I5" t="s">
-        <v>160</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
         <v>128</v>
-      </c>
-      <c r="B6" t="s">
-        <v>129</v>
       </c>
       <c r="C6" t="s">
         <v>118</v>
@@ -2066,13 +2066,13 @@
         <v>2005</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" t="s">
         <v>159</v>
-      </c>
-      <c r="I6" t="s">
-        <v>160</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -2101,10 +2101,10 @@
         <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -2112,10 +2112,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
@@ -2133,10 +2133,10 @@
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
         <v>61</v>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
         <v>130</v>
-      </c>
-      <c r="B9" t="s">
-        <v>131</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
@@ -2165,7 +2165,7 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
@@ -2197,7 +2197,7 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -2215,7 +2215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E84D51-3BFE-4638-9DD0-BF61EDA22FCF}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2249,16 +2249,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>135</v>
-      </c>
-      <c r="J1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I2" t="s">
         <v>118</v>
@@ -2298,7 +2298,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2316,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I3" t="s">
         <v>118</v>
@@ -2330,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2348,7 +2348,7 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I4" t="s">
         <v>118</v>
@@ -2362,7 +2362,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2380,7 +2380,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>118</v>
@@ -2394,7 +2394,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2412,10 +2412,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" t="s">
         <v>138</v>
-      </c>
-      <c r="I6" t="s">
-        <v>139</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -2444,10 +2444,10 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" t="s">
         <v>138</v>
-      </c>
-      <c r="I7" t="s">
-        <v>139</v>
       </c>
       <c r="J7" t="s">
         <v>6</v>
@@ -2476,10 +2476,10 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" t="s">
         <v>138</v>
-      </c>
-      <c r="I8" t="s">
-        <v>139</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
@@ -2519,7 +2519,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -2659,7 +2659,7 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2673,7 +2673,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -2751,16 +2751,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2786,10 +2786,10 @@
         <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -2800,7 +2800,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -2818,10 +2818,10 @@
         <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -2850,10 +2850,10 @@
         <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
@@ -2882,10 +2882,10 @@
         <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
@@ -2914,10 +2914,10 @@
         <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
         <v>61</v>
@@ -2928,7 +2928,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -2943,13 +2943,13 @@
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -2975,13 +2975,13 @@
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
         <v>61</v>
@@ -3010,7 +3010,7 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
@@ -3042,7 +3042,7 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -3074,7 +3074,7 @@
         <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I11" t="s">
         <v>57</v>
@@ -3106,10 +3106,10 @@
         <v>57</v>
       </c>
       <c r="H12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" t="s">
         <v>142</v>
-      </c>
-      <c r="I12" t="s">
-        <v>143</v>
       </c>
       <c r="J12" t="s">
         <v>61</v>
@@ -3138,10 +3138,10 @@
         <v>57</v>
       </c>
       <c r="H13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" t="s">
         <v>142</v>
-      </c>
-      <c r="I13" t="s">
-        <v>143</v>
       </c>
       <c r="J13" t="s">
         <v>61</v>
@@ -3170,7 +3170,7 @@
         <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I14" t="s">
         <v>118</v>
@@ -3202,7 +3202,7 @@
         <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I15" t="s">
         <v>118</v>
@@ -3234,7 +3234,7 @@
         <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" t="s">
         <v>118</v>
@@ -3248,7 +3248,7 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -3266,7 +3266,7 @@
         <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I17" t="s">
         <v>118</v>
@@ -3280,7 +3280,7 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
@@ -3298,7 +3298,7 @@
         <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I18" t="s">
         <v>118</v>
@@ -3330,7 +3330,7 @@
         <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I19" t="s">
         <v>60</v>
@@ -3362,7 +3362,7 @@
         <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I20" t="s">
         <v>60</v>
@@ -3376,7 +3376,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -3391,13 +3391,13 @@
         <v>2001</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" t="s">
         <v>142</v>
-      </c>
-      <c r="I21" t="s">
-        <v>143</v>
       </c>
       <c r="J21" t="s">
         <v>61</v>
@@ -3423,13 +3423,13 @@
         <v>2001</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" t="s">
         <v>142</v>
-      </c>
-      <c r="I22" t="s">
-        <v>143</v>
       </c>
       <c r="J22" t="s">
         <v>61</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -3598,16 +3598,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3615,7 +3615,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -3630,13 +3630,13 @@
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" t="s">
         <v>146</v>
-      </c>
-      <c r="I2" t="s">
-        <v>147</v>
       </c>
       <c r="J2" t="s">
         <v>62</v>
@@ -3662,13 +3662,13 @@
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" t="s">
         <v>146</v>
-      </c>
-      <c r="I3" t="s">
-        <v>147</v>
       </c>
       <c r="J3" t="s">
         <v>62</v>
@@ -3679,7 +3679,7 @@
         <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
@@ -3697,10 +3697,10 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
@@ -3729,10 +3729,10 @@
         <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
@@ -3761,10 +3761,10 @@
         <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
         <v>61</v>
@@ -3775,7 +3775,7 @@
         <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -3793,10 +3793,10 @@
         <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -3825,10 +3825,10 @@
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
         <v>61</v>
@@ -3839,7 +3839,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
@@ -3854,16 +3854,16 @@
         <v>2002</v>
       </c>
       <c r="G9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" t="s">
         <v>148</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>149</v>
-      </c>
-      <c r="J9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3886,16 +3886,16 @@
         <v>2002</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" t="s">
         <v>148</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>149</v>
-      </c>
-      <c r="J10" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3933,7 +3933,7 @@
         <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4073,16 +4073,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4093,7 +4093,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4105,10 +4105,10 @@
         <v>2003</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
         <v>118</v>
@@ -4122,10 +4122,10 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4137,10 +4137,10 @@
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
         <v>118</v>
@@ -4169,13 +4169,13 @@
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" t="s">
         <v>146</v>
-      </c>
-      <c r="I4" t="s">
-        <v>147</v>
       </c>
       <c r="J4" t="s">
         <v>62</v>
@@ -4201,13 +4201,13 @@
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" t="s">
         <v>146</v>
-      </c>
-      <c r="I5" t="s">
-        <v>147</v>
       </c>
       <c r="J5" t="s">
         <v>62</v>
@@ -4233,13 +4233,13 @@
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" t="s">
         <v>146</v>
-      </c>
-      <c r="I6" t="s">
-        <v>147</v>
       </c>
       <c r="J6" t="s">
         <v>62</v>
@@ -4253,7 +4253,7 @@
         <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -4268,10 +4268,10 @@
         <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
         <v>62</v>
@@ -4285,7 +4285,7 @@
         <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -4300,10 +4300,10 @@
         <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J8" t="s">
         <v>62</v>
@@ -4317,7 +4317,7 @@
         <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -4332,10 +4332,10 @@
         <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J9" t="s">
         <v>62</v>
@@ -4364,10 +4364,10 @@
         <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J10" t="s">
         <v>62</v>
@@ -4381,7 +4381,7 @@
         <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -4396,10 +4396,10 @@
         <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J11" t="s">
         <v>62</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -4453,7 +4453,7 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -4492,10 +4492,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>101</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
         <v>115</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
         <v>117</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6728CCD1-DD0D-4096-B8B5-855223EFAFDA}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30726251-21DA-4967-9A10-E21720FFFB03}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="10" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="8" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="183">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -345,9 +345,6 @@
     <t>Wantzen, KM</t>
   </si>
   <si>
-    <t>KMW</t>
-  </si>
-  <si>
     <t>DRFB</t>
   </si>
   <si>
@@ -417,9 +414,6 @@
     <t>Trivinho-Strixino, S</t>
   </si>
   <si>
-    <t>STS</t>
-  </si>
-  <si>
     <t>Gallego, OF</t>
   </si>
   <si>
@@ -595,6 +589,15 @@
   </si>
   <si>
     <t>TADSIQUE</t>
+  </si>
+  <si>
+    <t>SUSTSTRI</t>
+  </si>
+  <si>
+    <t>KARLMWANT</t>
+  </si>
+  <si>
+    <t>MRWS</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -999,10 +1002,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1016,7 +1019,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1049,7 +1052,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1081,16 +1084,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1098,7 +1101,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -1113,13 +1116,13 @@
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -1145,13 +1148,13 @@
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
@@ -1177,13 +1180,13 @@
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
@@ -1194,7 +1197,7 @@
         <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1209,13 +1212,13 @@
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
@@ -1226,10 +1229,10 @@
         <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1241,13 +1244,13 @@
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
         <v>61</v>
@@ -1258,7 +1261,7 @@
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -1276,10 +1279,10 @@
         <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -1290,7 +1293,7 @@
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
@@ -1308,10 +1311,10 @@
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
         <v>61</v>
@@ -1322,7 +1325,7 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
@@ -1340,10 +1343,10 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
@@ -1351,10 +1354,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
         <v>100</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
@@ -1372,10 +1375,10 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
         <v>61</v>
@@ -1383,10 +1386,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
         <v>102</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
@@ -1404,7 +1407,7 @@
         <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I11" t="s">
         <v>7</v>
@@ -1415,10 +1418,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
         <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
@@ -1436,7 +1439,7 @@
         <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I12" t="s">
         <v>7</v>
@@ -1447,10 +1450,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
         <v>106</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -1465,13 +1468,13 @@
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
         <v>61</v>
@@ -1479,10 +1482,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
         <v>108</v>
-      </c>
-      <c r="B14" t="s">
-        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -1497,13 +1500,13 @@
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
         <v>61</v>
@@ -1529,13 +1532,13 @@
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
         <v>61</v>
@@ -1543,10 +1546,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
@@ -1561,13 +1564,13 @@
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
         <v>61</v>
@@ -1575,10 +1578,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
         <v>111</v>
-      </c>
-      <c r="B17" t="s">
-        <v>112</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -1593,13 +1596,13 @@
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
         <v>61</v>
@@ -1607,13 +1610,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -1625,13 +1628,13 @@
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J18" t="s">
         <v>62</v>
@@ -1639,13 +1642,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
         <v>114</v>
       </c>
-      <c r="B19" t="s">
-        <v>115</v>
-      </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1657,13 +1660,13 @@
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
         <v>62</v>
@@ -1671,13 +1674,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
         <v>116</v>
       </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -1689,13 +1692,13 @@
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J20" t="s">
         <v>62</v>
@@ -1706,7 +1709,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -1721,13 +1724,13 @@
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J21" t="s">
         <v>61</v>
@@ -1753,13 +1756,13 @@
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J22" t="s">
         <v>61</v>
@@ -1774,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681D8C3-E4FC-4838-B1C5-BCB9920567F9}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,10 +1799,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1810,10 +1813,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
         <v>124</v>
-      </c>
-      <c r="B3" t="s">
-        <v>126</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1824,10 +1827,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1838,10 +1841,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1852,10 +1855,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1874,7 +1877,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1906,24 +1909,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -1941,7 +1944,7 @@
         <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
         <v>57</v>
@@ -1952,10 +1955,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1973,7 +1976,7 @@
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
@@ -1984,10 +1987,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2002,13 +2005,13 @@
         <v>2005</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J4" t="s">
         <v>6</v>
@@ -2016,10 +2019,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
@@ -2034,13 +2037,13 @@
         <v>2005</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
@@ -2048,13 +2051,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -2066,13 +2069,13 @@
         <v>2005</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -2080,10 +2083,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
         <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -2101,10 +2104,10 @@
         <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -2112,10 +2115,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
@@ -2133,10 +2136,10 @@
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
         <v>61</v>
@@ -2144,10 +2147,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
@@ -2165,7 +2168,7 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
@@ -2176,10 +2179,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
         <v>104</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
@@ -2197,7 +2200,7 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -2249,16 +2252,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" t="s">
         <v>133</v>
-      </c>
-      <c r="I1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2284,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -2298,7 +2301,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2316,10 +2319,10 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
@@ -2330,7 +2333,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2348,10 +2351,10 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
@@ -2362,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2380,10 +2383,10 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
@@ -2394,7 +2397,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2412,10 +2415,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -2444,10 +2447,10 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J7" t="s">
         <v>6</v>
@@ -2476,10 +2479,10 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
@@ -2519,7 +2522,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2533,7 +2536,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2572,7 +2575,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -2659,7 +2662,7 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2673,7 +2676,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -2698,7 +2701,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -2751,16 +2754,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2786,10 +2789,10 @@
         <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -2800,7 +2803,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -2818,10 +2821,10 @@
         <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
@@ -2832,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -2850,10 +2853,10 @@
         <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
@@ -2882,10 +2885,10 @@
         <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
@@ -2914,10 +2917,10 @@
         <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
         <v>61</v>
@@ -2928,7 +2931,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -2943,13 +2946,13 @@
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -2975,13 +2978,13 @@
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
         <v>61</v>
@@ -3010,7 +3013,7 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
@@ -3042,7 +3045,7 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -3074,7 +3077,7 @@
         <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I11" t="s">
         <v>57</v>
@@ -3106,10 +3109,10 @@
         <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
         <v>61</v>
@@ -3138,10 +3141,10 @@
         <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
         <v>61</v>
@@ -3170,10 +3173,10 @@
         <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J14" t="s">
         <v>61</v>
@@ -3202,10 +3205,10 @@
         <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J15" t="s">
         <v>61</v>
@@ -3234,10 +3237,10 @@
         <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
         <v>61</v>
@@ -3248,7 +3251,7 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -3266,10 +3269,10 @@
         <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J17" t="s">
         <v>61</v>
@@ -3280,7 +3283,7 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
@@ -3298,10 +3301,10 @@
         <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J18" t="s">
         <v>61</v>
@@ -3330,7 +3333,7 @@
         <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I19" t="s">
         <v>60</v>
@@ -3362,7 +3365,7 @@
         <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I20" t="s">
         <v>60</v>
@@ -3376,7 +3379,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -3391,13 +3394,13 @@
         <v>2001</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J21" t="s">
         <v>61</v>
@@ -3423,13 +3426,13 @@
         <v>2001</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J22" t="s">
         <v>61</v>
@@ -3469,7 +3472,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -3483,7 +3486,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -3497,7 +3500,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -3511,10 +3514,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3525,7 +3528,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -3539,7 +3542,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -3598,16 +3601,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3615,7 +3618,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -3630,13 +3633,13 @@
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
         <v>62</v>
@@ -3662,13 +3665,13 @@
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J3" t="s">
         <v>62</v>
@@ -3679,7 +3682,7 @@
         <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
@@ -3697,10 +3700,10 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
@@ -3729,10 +3732,10 @@
         <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
@@ -3761,10 +3764,10 @@
         <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
         <v>61</v>
@@ -3775,7 +3778,7 @@
         <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -3793,10 +3796,10 @@
         <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -3825,10 +3828,10 @@
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
         <v>61</v>
@@ -3839,7 +3842,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
@@ -3854,16 +3857,16 @@
         <v>2002</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" t="s">
         <v>147</v>
-      </c>
-      <c r="I9" t="s">
-        <v>148</v>
-      </c>
-      <c r="J9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3886,16 +3889,16 @@
         <v>2002</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" t="s">
         <v>147</v>
-      </c>
-      <c r="I10" t="s">
-        <v>148</v>
-      </c>
-      <c r="J10" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3933,7 +3936,7 @@
         <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4073,16 +4076,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4093,7 +4096,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4105,13 +4108,13 @@
         <v>2003</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -4122,10 +4125,10 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4137,13 +4140,13 @@
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
@@ -4169,13 +4172,13 @@
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J4" t="s">
         <v>62</v>
@@ -4201,13 +4204,13 @@
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J5" t="s">
         <v>62</v>
@@ -4233,13 +4236,13 @@
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J6" t="s">
         <v>62</v>
@@ -4253,7 +4256,7 @@
         <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -4268,10 +4271,10 @@
         <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J7" t="s">
         <v>62</v>
@@ -4285,7 +4288,7 @@
         <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -4300,10 +4303,10 @@
         <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J8" t="s">
         <v>62</v>
@@ -4317,7 +4320,7 @@
         <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -4332,10 +4335,10 @@
         <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J9" t="s">
         <v>62</v>
@@ -4364,10 +4367,10 @@
         <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J10" t="s">
         <v>62</v>
@@ -4381,7 +4384,7 @@
         <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -4396,10 +4399,10 @@
         <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J11" t="s">
         <v>62</v>
@@ -4414,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19502793-9484-45E0-B1BF-554E27631AC2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4436,7 +4439,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -4453,7 +4456,7 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4467,7 +4470,7 @@
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4478,10 +4481,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -4492,10 +4495,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4506,10 +4509,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -4520,10 +4523,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4534,10 +4537,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -4548,7 +4551,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -4562,10 +4565,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -4576,10 +4579,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4590,10 +4593,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -4604,10 +4607,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -4618,7 +4621,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30726251-21DA-4967-9A10-E21720FFFB03}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1843F01-D99B-447E-BCF9-E5A6B384D191}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="8" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="2" activeTab="10" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>North America</t>
   </si>
   <si>
-    <t>JB</t>
-  </si>
-  <si>
     <t>DFBP</t>
   </si>
   <si>
@@ -363,9 +360,6 @@
     <t>Callisto, M</t>
   </si>
   <si>
-    <t>MC</t>
-  </si>
-  <si>
     <t>Ranvestel, AW</t>
   </si>
   <si>
@@ -598,6 +592,12 @@
   </si>
   <si>
     <t>MRWS</t>
+  </si>
+  <si>
+    <t>JAMBOSCH</t>
+  </si>
+  <si>
+    <t>MARCCALL</t>
   </si>
 </sst>
 </file>
@@ -988,7 +988,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1019,7 +1019,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,16 +1084,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1101,7 +1101,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -1116,13 +1116,13 @@
         <v>2004</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -1148,13 +1148,13 @@
         <v>2004</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
         <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1180,13 +1180,13 @@
         <v>2004</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1212,13 +1212,13 @@
         <v>2004</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1244,13 +1244,13 @@
         <v>2004</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J6" t="s">
         <v>61</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -1279,10 +1279,10 @@
         <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
@@ -1311,10 +1311,10 @@
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J8" t="s">
         <v>61</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
@@ -1343,10 +1343,10 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
         <v>99</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
@@ -1375,10 +1375,10 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
         <v>61</v>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
         <v>101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
@@ -1407,7 +1407,7 @@
         <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I11" t="s">
         <v>7</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
@@ -1439,7 +1439,7 @@
         <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I12" t="s">
         <v>7</v>
@@ -1450,10 +1450,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -1468,13 +1468,13 @@
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
         <v>61</v>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -1500,13 +1500,13 @@
         <v>2004</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
         <v>61</v>
@@ -1532,13 +1532,13 @@
         <v>2004</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
         <v>61</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
@@ -1564,13 +1564,13 @@
         <v>2004</v>
       </c>
       <c r="G16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
         <v>61</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -1596,13 +1596,13 @@
         <v>2004</v>
       </c>
       <c r="G17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
         <v>61</v>
@@ -1610,13 +1610,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -1628,13 +1628,13 @@
         <v>2004</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
         <v>62</v>
@@ -1642,13 +1642,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1660,13 +1660,13 @@
         <v>2004</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J19" t="s">
         <v>62</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
         <v>116</v>
-      </c>
-      <c r="C20" t="s">
-        <v>118</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -1692,13 +1692,13 @@
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J20" t="s">
         <v>62</v>
@@ -1709,7 +1709,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -1724,13 +1724,13 @@
         <v>2004</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J21" t="s">
         <v>61</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
@@ -1756,13 +1756,13 @@
         <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J22" t="s">
         <v>61</v>
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681D8C3-E4FC-4838-B1C5-BCB9920567F9}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,10 +1799,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1813,10 +1813,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1841,10 +1841,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1877,7 +1877,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,24 +1909,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -1944,7 +1944,7 @@
         <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
         <v>57</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1976,7 +1976,7 @@
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2005,13 +2005,13 @@
         <v>2005</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J4" t="s">
         <v>6</v>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
@@ -2037,13 +2037,13 @@
         <v>2005</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
@@ -2051,13 +2051,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -2069,13 +2069,13 @@
         <v>2005</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -2104,10 +2104,10 @@
         <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
@@ -2136,10 +2136,10 @@
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J8" t="s">
         <v>61</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
@@ -2168,7 +2168,7 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
@@ -2200,7 +2200,7 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -2252,16 +2252,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
         <v>131</v>
-      </c>
-      <c r="I1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2287,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -2301,7 +2301,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2319,10 +2319,10 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
@@ -2333,7 +2333,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2351,10 +2351,10 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2383,10 +2383,10 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
@@ -2397,7 +2397,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2415,10 +2415,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -2447,10 +2447,10 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J7" t="s">
         <v>6</v>
@@ -2479,10 +2479,10 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
@@ -2522,7 +2522,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -2662,7 +2662,7 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -2676,7 +2676,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -2754,16 +2754,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2789,10 +2789,10 @@
         <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -2803,7 +2803,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -2821,10 +2821,10 @@
         <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -2853,10 +2853,10 @@
         <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
@@ -2885,10 +2885,10 @@
         <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
@@ -2917,10 +2917,10 @@
         <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J6" t="s">
         <v>61</v>
@@ -2931,7 +2931,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -2946,13 +2946,13 @@
         <v>2001</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -2978,13 +2978,13 @@
         <v>2001</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J8" t="s">
         <v>61</v>
@@ -3013,7 +3013,7 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
@@ -3045,7 +3045,7 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -3077,7 +3077,7 @@
         <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I11" t="s">
         <v>57</v>
@@ -3109,10 +3109,10 @@
         <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
         <v>61</v>
@@ -3141,10 +3141,10 @@
         <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
         <v>61</v>
@@ -3173,10 +3173,10 @@
         <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
         <v>61</v>
@@ -3205,10 +3205,10 @@
         <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J15" t="s">
         <v>61</v>
@@ -3237,10 +3237,10 @@
         <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J16" t="s">
         <v>61</v>
@@ -3251,7 +3251,7 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -3269,10 +3269,10 @@
         <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J17" t="s">
         <v>61</v>
@@ -3283,7 +3283,7 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
@@ -3301,10 +3301,10 @@
         <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J18" t="s">
         <v>61</v>
@@ -3333,7 +3333,7 @@
         <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I19" t="s">
         <v>60</v>
@@ -3365,7 +3365,7 @@
         <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I20" t="s">
         <v>60</v>
@@ -3379,7 +3379,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -3394,13 +3394,13 @@
         <v>2001</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J21" t="s">
         <v>61</v>
@@ -3426,13 +3426,13 @@
         <v>2001</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J22" t="s">
         <v>61</v>
@@ -3448,7 +3448,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3472,10 +3472,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -3500,10 +3500,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3542,10 +3542,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3564,7 +3564,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3601,16 +3601,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3618,7 +3618,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -3633,13 +3633,13 @@
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
         <v>62</v>
@@ -3647,10 +3647,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -3665,13 +3665,13 @@
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
         <v>62</v>
@@ -3679,10 +3679,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
@@ -3700,10 +3700,10 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
@@ -3732,10 +3732,10 @@
         <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J5" t="s">
         <v>61</v>
@@ -3743,10 +3743,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
@@ -3764,10 +3764,10 @@
         <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J6" t="s">
         <v>61</v>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -3796,10 +3796,10 @@
         <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
@@ -3828,10 +3828,10 @@
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J8" t="s">
         <v>61</v>
@@ -3842,7 +3842,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
@@ -3857,24 +3857,24 @@
         <v>2002</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" t="s">
         <v>145</v>
-      </c>
-      <c r="I9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J9" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -3889,16 +3889,16 @@
         <v>2002</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" t="s">
         <v>145</v>
-      </c>
-      <c r="I10" t="s">
-        <v>146</v>
-      </c>
-      <c r="J10" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3933,10 +3933,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3947,10 +3947,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -3975,10 +3975,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -3989,10 +3989,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -4003,10 +4003,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -4076,27 +4076,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4108,13 +4108,13 @@
         <v>2003</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -4122,13 +4122,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4140,13 +4140,13 @@
         <v>2003</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
@@ -4154,10 +4154,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
         <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -4172,13 +4172,13 @@
         <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
         <v>62</v>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -4204,13 +4204,13 @@
         <v>2003</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
         <v>62</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
         <v>82</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -4236,13 +4236,13 @@
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
         <v>62</v>
@@ -4250,13 +4250,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -4271,10 +4271,10 @@
         <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J7" t="s">
         <v>62</v>
@@ -4282,13 +4282,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -4303,10 +4303,10 @@
         <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J8" t="s">
         <v>62</v>
@@ -4314,13 +4314,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -4335,10 +4335,10 @@
         <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J9" t="s">
         <v>62</v>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
         <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
@@ -4367,10 +4367,10 @@
         <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J10" t="s">
         <v>62</v>
@@ -4378,13 +4378,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
         <v>92</v>
       </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -4399,10 +4399,10 @@
         <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J11" t="s">
         <v>62</v>
@@ -4417,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19502793-9484-45E0-B1BF-554E27631AC2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4439,10 +4439,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -4453,10 +4453,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4481,10 +4481,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -4495,10 +4495,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -4509,10 +4509,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -4523,10 +4523,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
         <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>108</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -4565,10 +4565,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -4579,10 +4579,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -4607,10 +4607,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="C15">
         <v>19</v>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1843F01-D99B-447E-BCF9-E5A6B384D191}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0CFB3F5-A406-4135-A539-5E424C1C77C1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="2" activeTab="10" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="3" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -1777,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681D8C3-E4FC-4838-B1C5-BCB9920567F9}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2722,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B81E93-D593-4021-8168-5A364216126A}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0CFB3F5-A406-4135-A539-5E424C1C77C1}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9347F1A-6236-42A7-A7C2-E5EAE71D2D08}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="3" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" tabRatio="782" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="206">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -598,6 +598,75 @@
   </si>
   <si>
     <t>MARCCALL</t>
+  </si>
+  <si>
+    <t>Williams, M</t>
+  </si>
+  <si>
+    <t>Martinelli, LA</t>
+  </si>
+  <si>
+    <t>Ballester, MV</t>
+  </si>
+  <si>
+    <t>Gessner, A</t>
+  </si>
+  <si>
+    <t>Krusche, AV</t>
+  </si>
+  <si>
+    <t>Victoria, RL</t>
+  </si>
+  <si>
+    <t>Ometo, JPHB</t>
+  </si>
+  <si>
+    <t>JEAPHBOME</t>
+  </si>
+  <si>
+    <t>LUIAMAR</t>
+  </si>
+  <si>
+    <t>MARVBAL</t>
+  </si>
+  <si>
+    <t>ALAGESS</t>
+  </si>
+  <si>
+    <t>ALEVKRUS</t>
+  </si>
+  <si>
+    <t>REYLVIC</t>
+  </si>
+  <si>
+    <t>MICWILL</t>
+  </si>
+  <si>
+    <t>O'Connor, PJ</t>
+  </si>
+  <si>
+    <t>Covich, AP</t>
+  </si>
+  <si>
+    <t>Scatena, FN</t>
+  </si>
+  <si>
+    <t>Loope, LL</t>
+  </si>
+  <si>
+    <t>PAUJOCO</t>
+  </si>
+  <si>
+    <t>ALACOV</t>
+  </si>
+  <si>
+    <t>FRESCA</t>
+  </si>
+  <si>
+    <t>LLOLLOO</t>
+  </si>
+  <si>
+    <t>Hawai</t>
   </si>
 </sst>
 </file>
@@ -641,9 +710,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,9 +733,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -702,7 +773,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -808,7 +879,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -950,7 +1021,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -958,21 +1029,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C46BBE5-340B-43C0-BB2F-9CA2B267DE48}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -1000,7 +1071,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>175</v>
       </c>
@@ -1014,7 +1085,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1028,7 +1099,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1039,6 +1110,132 @@
         <v>7</v>
       </c>
       <c r="D5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
         <v>2000</v>
       </c>
     </row>
@@ -1055,16 +1252,16 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1096,7 +1293,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1128,7 +1325,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1160,7 +1357,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1192,7 +1389,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1224,7 +1421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -1256,7 +1453,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1288,7 +1485,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1320,7 +1517,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -1352,7 +1549,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -1384,7 +1581,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1416,7 +1613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -1448,7 +1645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -1480,7 +1677,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -1512,7 +1709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1544,7 +1741,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -1576,7 +1773,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -1608,7 +1805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -1640,7 +1837,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -1672,7 +1869,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -1704,7 +1901,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1736,7 +1933,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1781,9 +1978,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -1811,7 +2008,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -1825,7 +2022,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -1839,7 +2036,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -1853,7 +2050,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -1880,16 +2077,16 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1921,7 +2118,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -1953,7 +2150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1985,7 +2182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -2017,7 +2214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -2049,7 +2246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -2081,7 +2278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -2113,7 +2310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -2145,7 +2342,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -2177,7 +2374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -2216,23 +2413,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E84D51-3BFE-4638-9DD0-BF61EDA22FCF}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2264,7 +2461,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2296,7 +2493,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2328,7 +2525,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2360,7 +2557,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2392,7 +2589,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2424,7 +2621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2456,7 +2653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2488,8 +2685,341 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>2000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>2000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>2000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>2000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>2000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>2000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>2000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>2000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17">
+        <v>2000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19">
+        <v>2000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H16" r:id="rId1" display="https://www.cambridge.org/core/journals/journal-of-tropical-ecology" xr:uid="{34915620-F8E2-4804-9888-91C6CA232B2C}"/>
+    <hyperlink ref="H17:H19" r:id="rId2" display="https://www.cambridge.org/core/journals/journal-of-tropical-ecology" xr:uid="{940BBDBD-D6B1-4D84-A2C8-59A05431AD04}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2498,12 +3028,12 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +3047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2531,7 +3061,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2545,7 +3075,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2559,7 +3089,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2573,7 +3103,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>167</v>
       </c>
@@ -2587,7 +3117,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2601,7 +3131,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2615,7 +3145,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2629,7 +3159,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2643,7 +3173,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -2657,7 +3187,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2671,7 +3201,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2685,7 +3215,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2699,7 +3229,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -2722,719 +3252,722 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B81E93-D593-4021-8168-5A364216126A}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="1" max="3" width="17.28515625" style="3"/>
+    <col min="4" max="4" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="3"/>
+    <col min="6" max="6" width="8.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3">
         <v>2001</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="J2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
         <v>2001</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="J3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
         <v>2001</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="J4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
         <v>2001</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="J5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
         <v>2001</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="J6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="3">
         <v>2001</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="J7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>2001</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="J8" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
         <v>2001</v>
       </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="I9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
         <v>2001</v>
       </c>
-      <c r="G10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="I10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
         <v>2001</v>
       </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="I11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12">
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3">
         <v>2001</v>
       </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="J12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13">
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3">
         <v>2001</v>
       </c>
-      <c r="G13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="J13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="3">
         <v>2001</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="J14" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
         <v>2001</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="J15" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
         <v>2001</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="J16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
         <v>2001</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="J17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
         <v>2001</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="J18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="3">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
         <v>2001</v>
       </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3">
         <v>12</v>
       </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3">
         <v>2001</v>
       </c>
-      <c r="G20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>13</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>2001</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="J21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>13</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>2001</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3451,12 +3984,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3470,7 +4003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -3484,7 +4017,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -3498,7 +4031,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -3512,7 +4045,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -3526,7 +4059,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -3540,7 +4073,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -3567,21 +4100,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3613,7 +4146,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3645,7 +4178,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -3677,7 +4210,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -3709,7 +4242,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -3741,7 +4274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -3773,7 +4306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -3805,7 +4338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -3837,7 +4370,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3869,7 +4402,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -3915,9 +4448,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3931,7 +4464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -3945,7 +4478,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -3959,7 +4492,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -3973,7 +4506,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -3987,7 +4520,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -4001,7 +4534,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -4015,7 +4548,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -4042,21 +4575,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4088,7 +4621,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -4120,7 +4653,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -4152,7 +4685,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -4184,7 +4717,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -4216,7 +4749,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -4248,7 +4781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -4280,7 +4813,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -4312,7 +4845,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -4344,7 +4877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -4376,7 +4909,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -4421,9 +4954,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4437,7 +4970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -4451,7 +4984,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -4465,7 +4998,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -4479,7 +5012,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -4493,7 +5026,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -4507,7 +5040,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -4521,7 +5054,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -4535,7 +5068,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -4549,7 +5082,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -4563,7 +5096,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -4577,7 +5110,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -4591,7 +5124,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -4605,7 +5138,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -4619,7 +5152,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>167</v>
       </c>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9347F1A-6236-42A7-A7C2-E5EAE71D2D08}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25B4E5B-ACAB-401B-96A6-B351C55CC7D4}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" tabRatio="782" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="5" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="244">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -667,6 +667,120 @@
   </si>
   <si>
     <t>Hawai</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>2024 search</t>
+  </si>
+  <si>
+    <t>Roberts, DR</t>
+  </si>
+  <si>
+    <t>Manguin, S</t>
+  </si>
+  <si>
+    <t>Rejmankova, E</t>
+  </si>
+  <si>
+    <t>Andre, R</t>
+  </si>
+  <si>
+    <t>Harbach, RE</t>
+  </si>
+  <si>
+    <t>Vanzie, E</t>
+  </si>
+  <si>
+    <t>Hakre, S</t>
+  </si>
+  <si>
+    <t>Polanco, J</t>
+  </si>
+  <si>
+    <t>DONRROB</t>
+  </si>
+  <si>
+    <t>SYLMAN</t>
+  </si>
+  <si>
+    <t>ELIREJ</t>
+  </si>
+  <si>
+    <t>RICAND</t>
+  </si>
+  <si>
+    <t>RALEHAR</t>
+  </si>
+  <si>
+    <t>ERRVAN</t>
+  </si>
+  <si>
+    <t>SHIHAK</t>
+  </si>
+  <si>
+    <t>JARPOL</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>BELIZE</t>
+  </si>
+  <si>
+    <t>Central America</t>
+  </si>
+  <si>
+    <t>Journal of Vector Ecology</t>
+  </si>
+  <si>
+    <t>McCreadie, JW</t>
+  </si>
+  <si>
+    <t>Adler, PH</t>
+  </si>
+  <si>
+    <t>NEUHAM</t>
+  </si>
+  <si>
+    <t>JOHWMCC</t>
+  </si>
+  <si>
+    <t>PETHALD</t>
+  </si>
+  <si>
+    <t>March, JG</t>
+  </si>
+  <si>
+    <t>Townsend, MJ</t>
+  </si>
+  <si>
+    <t>Wilson, AI</t>
+  </si>
+  <si>
+    <t>JAMGMAR</t>
+  </si>
+  <si>
+    <t>CATMPRI</t>
+  </si>
+  <si>
+    <t>MATJTOW</t>
+  </si>
+  <si>
+    <t>AMAIWIL</t>
+  </si>
+  <si>
+    <t>Barriga, R</t>
+  </si>
+  <si>
+    <t>BERHBOJ</t>
+  </si>
+  <si>
+    <t>RBARR</t>
+  </si>
+  <si>
+    <t>continent</t>
   </si>
 </sst>
 </file>
@@ -710,11 +824,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C46BBE5-340B-43C0-BB2F-9CA2B267DE48}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2413,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E84D51-3BFE-4638-9DD0-BF61EDA22FCF}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B19"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,39 +2541,42 @@
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2493,7 +2608,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2525,7 +2640,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2557,7 +2672,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2589,7 +2704,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2621,7 +2736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2653,7 +2768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2685,8 +2800,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>189</v>
       </c>
       <c r="B9" t="s">
@@ -2707,17 +2822,20 @@
       <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" t="s">
         <v>138</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -2739,17 +2857,20 @@
       <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
         <v>137</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" t="s">
         <v>138</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -2771,17 +2892,20 @@
       <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" t="s">
         <v>138</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>186</v>
       </c>
@@ -2803,17 +2927,20 @@
       <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" t="s">
         <v>138</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -2835,17 +2962,20 @@
       <c r="G13" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" t="s">
         <v>137</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -2867,17 +2997,20 @@
       <c r="G14" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>183</v>
       </c>
@@ -2899,17 +3032,20 @@
       <c r="G15" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" t="s">
         <v>138</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -2922,7 +3058,7 @@
       <c r="D16">
         <v>9</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>62</v>
       </c>
       <c r="F16">
@@ -2931,11 +3067,14 @@
       <c r="G16" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -2948,7 +3087,7 @@
       <c r="D17">
         <v>9</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>62</v>
       </c>
       <c r="F17">
@@ -2957,11 +3096,14 @@
       <c r="G17" t="s">
         <v>151</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -2983,11 +3125,14 @@
       <c r="G18" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -3000,7 +3145,7 @@
       <c r="D19">
         <v>9</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>62</v>
       </c>
       <c r="F19">
@@ -3009,8 +3154,11 @@
       <c r="G19" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" t="s">
         <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3027,9 +3175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4F261F-5EF4-48DE-9CDF-B5EA487C153B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3234,7 +3380,7 @@
         <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -3250,725 +3396,749 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B81E93-D593-4021-8168-5A364216126A}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.28515625" style="3"/>
-    <col min="4" max="4" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="3"/>
-    <col min="6" max="6" width="8.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="17.28515625" style="3"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>2001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>2001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>2001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>2001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7">
+        <v>2001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8">
+        <v>2001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>2001</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>2001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>2001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>2001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>2001</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14">
+        <v>2001</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>2001</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>2001</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>2001</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>2001</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19">
         <v>2001</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20">
         <v>2001</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21">
         <v>2001</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="G21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22">
         <v>2001</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I22" t="s">
         <v>138</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="3">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="3">
-        <v>9</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="3">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="3">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="3">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="3">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="3">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="3">
-        <v>12</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="3">
-        <v>13</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="3">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2001</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>61</v>
+      <c r="J22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3978,10 +4148,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17D1B6C-C6AD-4065-A91F-F57A6161323C}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4087,6 +4257,188 @@
         <v>2002</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>2002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4094,27 +4446,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB4A4F7-DD1D-4CA4-9E07-26648F9326F0}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="28.140625" customWidth="1"/>
     <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4128,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -4145,8 +4498,11 @@
       <c r="J1" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4178,7 +4534,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -4210,7 +4566,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -4242,7 +4598,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -4274,7 +4630,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -4306,7 +4662,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -4338,7 +4694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -4370,7 +4726,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4402,7 +4758,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -4432,6 +4788,553 @@
       </c>
       <c r="J10" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11">
+        <v>2002</v>
+      </c>
+      <c r="G11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11" t="s">
+        <v>227</v>
+      </c>
+      <c r="K11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>2002</v>
+      </c>
+      <c r="G12" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" t="s">
+        <v>227</v>
+      </c>
+      <c r="K12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13">
+        <v>2002</v>
+      </c>
+      <c r="G13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14">
+        <v>2002</v>
+      </c>
+      <c r="G14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>2002</v>
+      </c>
+      <c r="G15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" t="s">
+        <v>227</v>
+      </c>
+      <c r="K15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>2002</v>
+      </c>
+      <c r="G16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>2002</v>
+      </c>
+      <c r="G17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" t="s">
+        <v>227</v>
+      </c>
+      <c r="K17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>2002</v>
+      </c>
+      <c r="G18" t="s">
+        <v>226</v>
+      </c>
+      <c r="H18" t="s">
+        <v>227</v>
+      </c>
+      <c r="K18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>2002</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>2002</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21">
+        <v>2002</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22">
+        <v>2002</v>
+      </c>
+      <c r="G22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23">
+        <v>2002</v>
+      </c>
+      <c r="G23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24">
+        <v>2002</v>
+      </c>
+      <c r="G24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25">
+        <v>2002</v>
+      </c>
+      <c r="G25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26">
+        <v>2002</v>
+      </c>
+      <c r="G26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>2002</v>
+      </c>
+      <c r="G27" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4572,7 +5475,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/data2000_2005.xlsx
+++ b/data/data2000_2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/00 In progress/Network Analysis/NetworkAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25B4E5B-ACAB-401B-96A6-B351C55CC7D4}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="13_ncr:1_{E70F649B-04ED-4137-AAFC-1FCCBB396F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EEED2B4-ABDC-4D85-B09D-B105EB5EC423}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="5" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="782" activeTab="3" xr2:uid="{BF2EA46F-9D15-4160-A593-86C5129D2238}"/>
   </bookViews>
   <sheets>
     <sheet name="2000authors" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="250">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -781,6 +781,24 @@
   </si>
   <si>
     <t>continent</t>
+  </si>
+  <si>
+    <t>Rosemond, AD</t>
+  </si>
+  <si>
+    <t>Ramírez, A</t>
+  </si>
+  <si>
+    <t>Paul, MJ</t>
+  </si>
+  <si>
+    <t>AMYDROS</t>
+  </si>
+  <si>
+    <t>MICJPAU</t>
+  </si>
+  <si>
+    <t>Ecology</t>
   </si>
 </sst>
 </file>
@@ -3173,9 +3191,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4F261F-5EF4-48DE-9CDF-B5EA487C153B}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3386,6 +3406,48 @@
         <v>13</v>
       </c>
       <c r="D15">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
         <v>2001</v>
       </c>
     </row>
@@ -3396,10 +3458,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B81E93-D593-4021-8168-5A364216126A}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3892,9 +3954,6 @@
       <c r="J15" t="s">
         <v>61</v>
       </c>
-      <c r="K15" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3927,9 +3986,6 @@
       <c r="J16" t="s">
         <v>61</v>
       </c>
-      <c r="K16" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3962,9 +4018,6 @@
       <c r="J17" t="s">
         <v>61</v>
       </c>
-      <c r="K17" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3997,9 +4050,6 @@
       <c r="J18" t="s">
         <v>61</v>
       </c>
-      <c r="K18" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -4032,9 +4082,6 @@
       <c r="J19" t="s">
         <v>62</v>
       </c>
-      <c r="K19" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4067,9 +4114,6 @@
       <c r="J20" t="s">
         <v>62</v>
       </c>
-      <c r="K20" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4102,9 +4146,6 @@
       <c r="J21" t="s">
         <v>61</v>
       </c>
-      <c r="K21" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4138,6 +4179,146 @@
         <v>61</v>
       </c>
       <c r="K22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23">
+        <v>2001</v>
+      </c>
+      <c r="G23" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" t="s">
+        <v>249</v>
+      </c>
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24">
+        <v>2002</v>
+      </c>
+      <c r="G24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25">
+        <v>2003</v>
+      </c>
+      <c r="G25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" t="s">
+        <v>249</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>2004</v>
+      </c>
+      <c r="G26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" t="s">
+        <v>249</v>
+      </c>
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4448,7 +4629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB4A4F7-DD1D-4CA4-9E07-26648F9326F0}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
